--- a/Algoritimos/Algoritmos 8864/Resultados_sS_8864.xlsx
+++ b/Algoritimos/Algoritmos 8864/Resultados_sS_8864.xlsx
@@ -8,15 +8,28 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Victor\Documents\GitHub\projeto-de-graduacao\Algoritimos\Algoritmos 8864\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12BDFE23-0EA1-47D3-A4D6-C2C872053387}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{094489D0-B593-4C9F-B1FE-8FF0A9BC7CCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -2490,6 +2503,7 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -3020,23 +3034,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L801"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B251" sqref="B251:G251"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L260" sqref="L260"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.5703125" customWidth="1"/>
-    <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" style="4" customWidth="1"/>
-    <col min="6" max="6" width="11.7109375" customWidth="1"/>
-    <col min="7" max="7" width="9.7109375" customWidth="1"/>
-    <col min="8" max="8" width="13.7109375" customWidth="1"/>
+    <col min="1" max="1" width="10.5546875" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.88671875" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.33203125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="11.6640625" customWidth="1"/>
+    <col min="7" max="7" width="9.6640625" customWidth="1"/>
+    <col min="8" max="8" width="13.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>807</v>
       </c>
@@ -3062,7 +3076,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>20</v>
       </c>
@@ -3088,7 +3102,7 @@
         <v>-4322880.5585543029</v>
       </c>
     </row>
-    <row r="3" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>5</v>
       </c>
@@ -3114,7 +3128,7 @@
         <v>-1100292.964946928</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>6</v>
       </c>
@@ -3140,7 +3154,7 @@
         <v>-1338498.76725417</v>
       </c>
     </row>
-    <row r="5" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>23</v>
       </c>
@@ -3166,7 +3180,7 @@
         <v>-4950267.6187361106</v>
       </c>
     </row>
-    <row r="6" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>10</v>
       </c>
@@ -3192,7 +3206,7 @@
         <v>-2153015.3538117311</v>
       </c>
     </row>
-    <row r="7" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>0</v>
       </c>
@@ -3218,7 +3232,7 @@
         <v>-127704.00881697091</v>
       </c>
     </row>
-    <row r="8" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>19</v>
       </c>
@@ -3244,7 +3258,7 @@
         <v>-4093169.482624671</v>
       </c>
     </row>
-    <row r="9" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>21</v>
       </c>
@@ -3270,7 +3284,7 @@
         <v>-4556380.5632852586</v>
       </c>
     </row>
-    <row r="10" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>3</v>
       </c>
@@ -3299,7 +3313,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="11" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>16</v>
       </c>
@@ -3325,7 +3339,7 @@
         <v>-3381999.314124296</v>
       </c>
     </row>
-    <row r="12" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>15</v>
       </c>
@@ -3351,7 +3365,7 @@
         <v>-3164535.172623151</v>
       </c>
     </row>
-    <row r="13" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>1</v>
       </c>
@@ -3377,7 +3391,7 @@
         <v>-325305.46650545241</v>
       </c>
     </row>
-    <row r="14" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>25</v>
       </c>
@@ -3403,7 +3417,7 @@
         <v>-5308620.7795921769</v>
       </c>
     </row>
-    <row r="15" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>7</v>
       </c>
@@ -3429,7 +3443,7 @@
         <v>-1545606.860385176</v>
       </c>
     </row>
-    <row r="16" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>18</v>
       </c>
@@ -3455,7 +3469,7 @@
         <v>-3840587.2855787622</v>
       </c>
     </row>
-    <row r="17" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>33</v>
       </c>
@@ -3481,7 +3495,7 @@
         <v>-6778121.8776356056</v>
       </c>
     </row>
-    <row r="18" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>4</v>
       </c>
@@ -3507,7 +3521,7 @@
         <v>-868133.53734729229</v>
       </c>
     </row>
-    <row r="19" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>22</v>
       </c>
@@ -3533,7 +3547,7 @@
         <v>-4744412.2298260583</v>
       </c>
     </row>
-    <row r="20" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>12</v>
       </c>
@@ -3559,7 +3573,7 @@
         <v>-2525898.3760898528</v>
       </c>
     </row>
-    <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>24</v>
       </c>
@@ -3585,7 +3599,7 @@
         <v>-5141501.0953527465</v>
       </c>
     </row>
-    <row r="22" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>40</v>
       </c>
@@ -3611,7 +3625,7 @@
         <v>-8120104.6680776821</v>
       </c>
     </row>
-    <row r="23" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>29</v>
       </c>
@@ -3637,7 +3651,7 @@
         <v>-6040519.3515494224</v>
       </c>
     </row>
-    <row r="24" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>45</v>
       </c>
@@ -3663,7 +3677,7 @@
         <v>-8981454.1366679613</v>
       </c>
     </row>
-    <row r="25" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>8</v>
       </c>
@@ -3689,7 +3703,7 @@
         <v>-1710672.5957064121</v>
       </c>
     </row>
-    <row r="26" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>43</v>
       </c>
@@ -3715,7 +3729,7 @@
         <v>-8638273.9438795783</v>
       </c>
     </row>
-    <row r="27" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>27</v>
       </c>
@@ -3741,7 +3755,7 @@
         <v>-5652318.5715424968</v>
       </c>
     </row>
-    <row r="28" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>47</v>
       </c>
@@ -3767,7 +3781,7 @@
         <v>-9338488.3277761601</v>
       </c>
     </row>
-    <row r="29" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>2</v>
       </c>
@@ -3793,7 +3807,7 @@
         <v>-486179.44286149502</v>
       </c>
     </row>
-    <row r="30" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>14</v>
       </c>
@@ -3819,7 +3833,7 @@
         <v>-2961516.630076013</v>
       </c>
     </row>
-    <row r="31" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>49</v>
       </c>
@@ -3845,7 +3859,7 @@
         <v>-9652121.0313095488</v>
       </c>
     </row>
-    <row r="32" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>46</v>
       </c>
@@ -3871,7 +3885,7 @@
         <v>-9172067.6766560897</v>
       </c>
     </row>
-    <row r="33" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>13</v>
       </c>
@@ -3897,7 +3911,7 @@
         <v>-2744576.2382706432</v>
       </c>
     </row>
-    <row r="34" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>9</v>
       </c>
@@ -3923,7 +3937,7 @@
         <v>-1904417.34176058</v>
       </c>
     </row>
-    <row r="35" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>86</v>
       </c>
@@ -3949,7 +3963,7 @@
         <v>-15623011.19012095</v>
       </c>
     </row>
-    <row r="36" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>64</v>
       </c>
@@ -3975,7 +3989,7 @@
         <v>-12269381.285163751</v>
       </c>
     </row>
-    <row r="37" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>51</v>
       </c>
@@ -4001,7 +4015,7 @@
         <v>-10039401.183166079</v>
       </c>
     </row>
-    <row r="38" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>62</v>
       </c>
@@ -4027,7 +4041,7 @@
         <v>-11954588.991672119</v>
       </c>
     </row>
-    <row r="39" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>11</v>
       </c>
@@ -4053,7 +4067,7 @@
         <v>-2318769.9686479168</v>
       </c>
     </row>
-    <row r="40" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>80</v>
       </c>
@@ -4079,7 +4093,7 @@
         <v>-14754719.867067041</v>
       </c>
     </row>
-    <row r="41" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>54</v>
       </c>
@@ -4105,7 +4119,7 @@
         <v>-10570668.037122071</v>
       </c>
     </row>
-    <row r="42" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>37</v>
       </c>
@@ -4131,7 +4145,7 @@
         <v>-7534756.2834087387</v>
       </c>
     </row>
-    <row r="43" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>30</v>
       </c>
@@ -4157,7 +4171,7 @@
         <v>-6238942.3045113953</v>
       </c>
     </row>
-    <row r="44" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>58</v>
       </c>
@@ -4183,7 +4197,7 @@
         <v>-11239387.79547634</v>
       </c>
     </row>
-    <row r="45" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>36</v>
       </c>
@@ -4209,7 +4223,7 @@
         <v>-7328517.4385804832</v>
       </c>
     </row>
-    <row r="46" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>59</v>
       </c>
@@ -4235,7 +4249,7 @@
         <v>-11419127.69379648</v>
       </c>
     </row>
-    <row r="47" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>38</v>
       </c>
@@ -4261,7 +4275,7 @@
         <v>-7749482.9130066363</v>
       </c>
     </row>
-    <row r="48" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>41</v>
       </c>
@@ -4287,7 +4301,7 @@
         <v>-8314893.9677582094</v>
       </c>
     </row>
-    <row r="49" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>39</v>
       </c>
@@ -4313,7 +4327,7 @@
         <v>-7945857.8056990523</v>
       </c>
     </row>
-    <row r="50" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -4339,7 +4353,7 @@
         <v>-9492042.4121901803</v>
       </c>
     </row>
-    <row r="51" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>42</v>
       </c>
@@ -4365,7 +4379,7 @@
         <v>-8457884.8172272183</v>
       </c>
     </row>
-    <row r="52" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>61</v>
       </c>
@@ -4391,7 +4405,7 @@
         <v>-11780385.75087362</v>
       </c>
     </row>
-    <row r="53" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>17</v>
       </c>
@@ -4417,7 +4431,7 @@
         <v>-3616451.9881711151</v>
       </c>
     </row>
-    <row r="54" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>35</v>
       </c>
@@ -4443,7 +4457,7 @@
         <v>-7159213.8426742451</v>
       </c>
     </row>
-    <row r="55" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>100</v>
       </c>
@@ -4469,7 +4483,7 @@
         <v>-17631145.707232751</v>
       </c>
     </row>
-    <row r="56" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>63</v>
       </c>
@@ -4495,7 +4509,7 @@
         <v>-12103068.51839642</v>
       </c>
     </row>
-    <row r="57" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>60</v>
       </c>
@@ -4521,7 +4535,7 @@
         <v>-11593054.31541157</v>
       </c>
     </row>
-    <row r="58" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>34</v>
       </c>
@@ -4547,7 +4561,7 @@
         <v>-7003691.9742713924</v>
       </c>
     </row>
-    <row r="59" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>28</v>
       </c>
@@ -4573,7 +4587,7 @@
         <v>-5836049.1186745064</v>
       </c>
     </row>
-    <row r="60" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>106</v>
       </c>
@@ -4599,7 +4613,7 @@
         <v>-18462032.86499057</v>
       </c>
     </row>
-    <row r="61" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>31</v>
       </c>
@@ -4625,7 +4639,7 @@
         <v>-6421217.0906905262</v>
       </c>
     </row>
-    <row r="62" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>44</v>
       </c>
@@ -4651,7 +4665,7 @@
         <v>-8819382.961417336</v>
       </c>
     </row>
-    <row r="63" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>32</v>
       </c>
@@ -4677,7 +4691,7 @@
         <v>-6594441.2806908544</v>
       </c>
     </row>
-    <row r="64" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>52</v>
       </c>
@@ -4703,7 +4717,7 @@
         <v>-10218619.192242211</v>
       </c>
     </row>
-    <row r="65" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>77</v>
       </c>
@@ -4729,7 +4743,7 @@
         <v>-14155364.522375541</v>
       </c>
     </row>
-    <row r="66" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>79</v>
       </c>
@@ -4755,7 +4769,7 @@
         <v>-14525202.897123771</v>
       </c>
     </row>
-    <row r="67" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>71</v>
       </c>
@@ -4781,7 +4795,7 @@
         <v>-13316723.07689059</v>
       </c>
     </row>
-    <row r="68" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>65</v>
       </c>
@@ -4807,7 +4821,7 @@
         <v>-12436220.842963159</v>
       </c>
     </row>
-    <row r="69" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>55</v>
       </c>
@@ -4833,7 +4847,7 @@
         <v>-10756629.408601509</v>
       </c>
     </row>
-    <row r="70" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>84</v>
       </c>
@@ -4859,7 +4873,7 @@
         <v>-15329652.94333405</v>
       </c>
     </row>
-    <row r="71" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>78</v>
       </c>
@@ -4885,7 +4899,7 @@
         <v>-14327058.139414771</v>
       </c>
     </row>
-    <row r="72" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>68</v>
       </c>
@@ -4911,7 +4925,7 @@
         <v>-12897123.839086549</v>
       </c>
     </row>
-    <row r="73" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>66</v>
       </c>
@@ -4937,7 +4951,7 @@
         <v>-12576148.024384471</v>
       </c>
     </row>
-    <row r="74" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>122</v>
       </c>
@@ -4963,7 +4977,7 @@
         <v>-20598370.918092322</v>
       </c>
     </row>
-    <row r="75" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>85</v>
       </c>
@@ -4989,7 +5003,7 @@
         <v>-15461549.909181589</v>
       </c>
     </row>
-    <row r="76" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>124</v>
       </c>
@@ -5015,7 +5029,7 @@
         <v>-20902164.952547081</v>
       </c>
     </row>
-    <row r="77" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>73</v>
       </c>
@@ -5041,7 +5055,7 @@
         <v>-13636397.2017677</v>
       </c>
     </row>
-    <row r="78" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>92</v>
       </c>
@@ -5067,7 +5081,7 @@
         <v>-16445155.007084001</v>
       </c>
     </row>
-    <row r="79" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>26</v>
       </c>
@@ -5093,7 +5107,7 @@
         <v>-5485683.0862930156</v>
       </c>
     </row>
-    <row r="80" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>67</v>
       </c>
@@ -5119,7 +5133,7 @@
         <v>-12739872.08218601</v>
       </c>
     </row>
-    <row r="81" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>200</v>
       </c>
@@ -5145,7 +5159,7 @@
         <v>-28687597.764869832</v>
       </c>
     </row>
-    <row r="82" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>69</v>
       </c>
@@ -5171,7 +5185,7 @@
         <v>-13016088.945516029</v>
       </c>
     </row>
-    <row r="83" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>141</v>
       </c>
@@ -5197,7 +5211,7 @@
         <v>-22787158.616626069</v>
       </c>
     </row>
-    <row r="84" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>144</v>
       </c>
@@ -5223,7 +5237,7 @@
         <v>-23196734.001987681</v>
       </c>
     </row>
-    <row r="85" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>121</v>
       </c>
@@ -5249,7 +5263,7 @@
         <v>-20446460.719109628</v>
       </c>
     </row>
-    <row r="86" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>56</v>
       </c>
@@ -5275,7 +5289,7 @@
         <v>-10902632.14094203</v>
       </c>
     </row>
-    <row r="87" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>57</v>
       </c>
@@ -5301,7 +5315,7 @@
         <v>-11062360.98863747</v>
       </c>
     </row>
-    <row r="88" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>50</v>
       </c>
@@ -5327,7 +5341,7 @@
         <v>-9857114.9164273627</v>
       </c>
     </row>
-    <row r="89" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>104</v>
       </c>
@@ -5353,7 +5367,7 @@
         <v>-18191857.79136854</v>
       </c>
     </row>
-    <row r="90" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>101</v>
       </c>
@@ -5379,7 +5393,7 @@
         <v>-17823400.41903045</v>
       </c>
     </row>
-    <row r="91" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>102</v>
       </c>
@@ -5405,7 +5419,7 @@
         <v>-17960576.240790311</v>
       </c>
     </row>
-    <row r="92" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>95</v>
       </c>
@@ -5431,7 +5445,7 @@
         <v>-16867969.355842412</v>
       </c>
     </row>
-    <row r="93" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>108</v>
       </c>
@@ -5457,7 +5471,7 @@
         <v>-18735156.891035538</v>
       </c>
     </row>
-    <row r="94" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>83</v>
       </c>
@@ -5483,7 +5497,7 @@
         <v>-15186793.925093951</v>
       </c>
     </row>
-    <row r="95" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>97</v>
       </c>
@@ -5509,7 +5523,7 @@
         <v>-17198349.615967069</v>
       </c>
     </row>
-    <row r="96" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>103</v>
       </c>
@@ -5535,7 +5549,7 @@
         <v>-18064976.937908281</v>
       </c>
     </row>
-    <row r="97" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>75</v>
       </c>
@@ -5561,7 +5575,7 @@
         <v>-13904691.18927267</v>
       </c>
     </row>
-    <row r="98" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>89</v>
       </c>
@@ -5587,7 +5601,7 @@
         <v>-16044676.462511759</v>
       </c>
     </row>
-    <row r="99" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>81</v>
       </c>
@@ -5613,7 +5627,7 @@
         <v>-14931751.884537339</v>
       </c>
     </row>
-    <row r="100" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>107</v>
       </c>
@@ -5639,7 +5653,7 @@
         <v>-18612203.99058713</v>
       </c>
     </row>
-    <row r="101" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>91</v>
       </c>
@@ -5665,7 +5679,7 @@
         <v>-16296209.21183544</v>
       </c>
     </row>
-    <row r="102" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>135</v>
       </c>
@@ -5691,7 +5705,7 @@
         <v>-22113644.85643037</v>
       </c>
     </row>
-    <row r="103" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <v>70</v>
       </c>
@@ -5717,7 +5731,7 @@
         <v>-13149868.15384059</v>
       </c>
     </row>
-    <row r="104" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <v>120</v>
       </c>
@@ -5743,7 +5757,7 @@
         <v>-20283612.670746401</v>
       </c>
     </row>
-    <row r="105" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <v>72</v>
       </c>
@@ -5769,7 +5783,7 @@
         <v>-13481925.895598629</v>
       </c>
     </row>
-    <row r="106" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
         <v>112</v>
       </c>
@@ -5795,7 +5809,7 @@
         <v>-19270172.81764454</v>
       </c>
     </row>
-    <row r="107" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
         <v>129</v>
       </c>
@@ -5821,7 +5835,7 @@
         <v>-21478669.867806539</v>
       </c>
     </row>
-    <row r="108" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <v>109</v>
       </c>
@@ -5847,7 +5861,7 @@
         <v>-18891413.01281669</v>
       </c>
     </row>
-    <row r="109" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
         <v>113</v>
       </c>
@@ -5873,7 +5887,7 @@
         <v>-19392003.645201489</v>
       </c>
     </row>
-    <row r="110" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
         <v>82</v>
       </c>
@@ -5899,7 +5913,7 @@
         <v>-15078606.3690065</v>
       </c>
     </row>
-    <row r="111" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
         <v>76</v>
       </c>
@@ -5925,7 +5939,7 @@
         <v>-14029927.942364389</v>
       </c>
     </row>
-    <row r="112" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
         <v>162</v>
       </c>
@@ -5951,7 +5965,7 @@
         <v>-25160254.304924909</v>
       </c>
     </row>
-    <row r="113" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
         <v>87</v>
       </c>
@@ -5977,7 +5991,7 @@
         <v>-15766023.196016461</v>
       </c>
     </row>
-    <row r="114" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
         <v>115</v>
       </c>
@@ -6003,7 +6017,7 @@
         <v>-19685607.10261742</v>
       </c>
     </row>
-    <row r="115" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
         <v>105</v>
       </c>
@@ -6029,7 +6043,7 @@
         <v>-18313060.83745864</v>
       </c>
     </row>
-    <row r="116" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
         <v>148</v>
       </c>
@@ -6055,7 +6069,7 @@
         <v>-23645982.536291089</v>
       </c>
     </row>
-    <row r="117" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
         <v>110</v>
       </c>
@@ -6081,7 +6095,7 @@
         <v>-19018868.260667771</v>
       </c>
     </row>
-    <row r="118" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
         <v>147</v>
       </c>
@@ -6107,7 +6121,7 @@
         <v>-23535719.83141141</v>
       </c>
     </row>
-    <row r="119" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
         <v>123</v>
       </c>
@@ -6133,7 +6147,7 @@
         <v>-20751978.819597449</v>
       </c>
     </row>
-    <row r="120" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
         <v>53</v>
       </c>
@@ -6159,7 +6173,7 @@
         <v>-10362309.782044141</v>
       </c>
     </row>
-    <row r="121" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
         <v>142</v>
       </c>
@@ -6185,7 +6199,7 @@
         <v>-22961368.601493388</v>
       </c>
     </row>
-    <row r="122" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
         <v>94</v>
       </c>
@@ -6211,7 +6225,7 @@
         <v>-16718492.942598021</v>
       </c>
     </row>
-    <row r="123" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
         <v>181</v>
       </c>
@@ -6237,7 +6251,7 @@
         <v>-27022623.274105828</v>
       </c>
     </row>
-    <row r="124" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
         <v>111</v>
       </c>
@@ -6263,7 +6277,7 @@
         <v>-19134566.772847079</v>
       </c>
     </row>
-    <row r="125" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
         <v>99</v>
       </c>
@@ -6289,7 +6303,7 @@
         <v>-17442461.81557272</v>
       </c>
     </row>
-    <row r="126" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A126" s="1">
         <v>114</v>
       </c>
@@ -6315,7 +6329,7 @@
         <v>-19547558.063832119</v>
       </c>
     </row>
-    <row r="127" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A127" s="1">
         <v>161</v>
       </c>
@@ -6341,7 +6355,7 @@
         <v>-25017369.130410671</v>
       </c>
     </row>
-    <row r="128" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A128" s="1">
         <v>74</v>
       </c>
@@ -6367,7 +6381,7 @@
         <v>-13768645.54757772</v>
       </c>
     </row>
-    <row r="129" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A129" s="1">
         <v>88</v>
       </c>
@@ -6393,7 +6407,7 @@
         <v>-15875506.48114449</v>
       </c>
     </row>
-    <row r="130" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A130" s="1">
         <v>93</v>
       </c>
@@ -6419,7 +6433,7 @@
         <v>-16573589.15703233</v>
       </c>
     </row>
-    <row r="131" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A131" s="1">
         <v>96</v>
       </c>
@@ -6445,7 +6459,7 @@
         <v>-17036614.418513872</v>
       </c>
     </row>
-    <row r="132" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A132" s="1">
         <v>119</v>
       </c>
@@ -6471,7 +6485,7 @@
         <v>-20167695.783810958</v>
       </c>
     </row>
-    <row r="133" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A133" s="1">
         <v>130</v>
       </c>
@@ -6497,7 +6511,7 @@
         <v>-21629311.93802708</v>
       </c>
     </row>
-    <row r="134" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A134" s="1">
         <v>146</v>
       </c>
@@ -6523,7 +6537,7 @@
         <v>-23419436.28394388</v>
       </c>
     </row>
-    <row r="135" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A135" s="1">
         <v>128</v>
       </c>
@@ -6549,7 +6563,7 @@
         <v>-21363012.224493399</v>
       </c>
     </row>
-    <row r="136" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A136" s="1">
         <v>132</v>
       </c>
@@ -6575,7 +6589,7 @@
         <v>-21808424.348593649</v>
       </c>
     </row>
-    <row r="137" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A137" s="1">
         <v>117</v>
       </c>
@@ -6601,7 +6615,7 @@
         <v>-19954112.666434381</v>
       </c>
     </row>
-    <row r="138" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A138" s="1">
         <v>173</v>
       </c>
@@ -6627,7 +6641,7 @@
         <v>-26273229.755074002</v>
       </c>
     </row>
-    <row r="139" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A139" s="1">
         <v>145</v>
       </c>
@@ -6653,7 +6667,7 @@
         <v>-23325568.0122515</v>
       </c>
     </row>
-    <row r="140" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A140" s="1">
         <v>125</v>
       </c>
@@ -6679,7 +6693,7 @@
         <v>-21015273.152378071</v>
       </c>
     </row>
-    <row r="141" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A141" s="1">
         <v>126</v>
       </c>
@@ -6705,7 +6719,7 @@
         <v>-21141763.187455609</v>
       </c>
     </row>
-    <row r="142" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A142" s="1">
         <v>163</v>
       </c>
@@ -6731,7 +6745,7 @@
         <v>-25310148.455184322</v>
       </c>
     </row>
-    <row r="143" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A143" s="1">
         <v>222</v>
       </c>
@@ -6757,7 +6771,7 @@
         <v>-30774756.162740242</v>
       </c>
     </row>
-    <row r="144" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A144" s="1">
         <v>166</v>
       </c>
@@ -6783,7 +6797,7 @@
         <v>-25625826.757384419</v>
       </c>
     </row>
-    <row r="145" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A145" s="1">
         <v>184</v>
       </c>
@@ -6809,7 +6823,7 @@
         <v>-27376341.955617331</v>
       </c>
     </row>
-    <row r="146" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A146" s="1">
         <v>139</v>
       </c>
@@ -6835,7 +6849,7 @@
         <v>-22532828.092264641</v>
       </c>
     </row>
-    <row r="147" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A147" s="1">
         <v>152</v>
       </c>
@@ -6861,7 +6875,7 @@
         <v>-24051826.22740633</v>
       </c>
     </row>
-    <row r="148" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A148" s="1">
         <v>187</v>
       </c>
@@ -6887,7 +6901,7 @@
         <v>-27611113.68864714</v>
       </c>
     </row>
-    <row r="149" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A149" s="1">
         <v>182</v>
       </c>
@@ -6913,7 +6927,7 @@
         <v>-27176372.838515591</v>
       </c>
     </row>
-    <row r="150" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A150" s="1">
         <v>155</v>
       </c>
@@ -6939,7 +6953,7 @@
         <v>-24382604.498425148</v>
       </c>
     </row>
-    <row r="151" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A151" s="1">
         <v>127</v>
       </c>
@@ -6965,7 +6979,7 @@
         <v>-21251967.1196591</v>
       </c>
     </row>
-    <row r="152" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A152" s="1">
         <v>170</v>
       </c>
@@ -6991,7 +7005,7 @@
         <v>-25989632.263661511</v>
       </c>
     </row>
-    <row r="153" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A153" s="1">
         <v>167</v>
       </c>
@@ -7017,7 +7031,7 @@
         <v>-25727438.815830208</v>
       </c>
     </row>
-    <row r="154" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A154" s="1">
         <v>143</v>
       </c>
@@ -7043,7 +7057,7 @@
         <v>-23091160.153172441</v>
       </c>
     </row>
-    <row r="155" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A155" s="1">
         <v>180</v>
       </c>
@@ -7069,7 +7083,7 @@
         <v>-26874450.800813571</v>
       </c>
     </row>
-    <row r="156" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A156" s="1">
         <v>149</v>
       </c>
@@ -7095,7 +7109,7 @@
         <v>-23751391.04651003</v>
       </c>
     </row>
-    <row r="157" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A157" s="1">
         <v>116</v>
       </c>
@@ -7121,7 +7135,7 @@
         <v>-19789884.745224711</v>
       </c>
     </row>
-    <row r="158" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A158" s="1">
         <v>98</v>
       </c>
@@ -7147,7 +7161,7 @@
         <v>-17335984.810671549</v>
       </c>
     </row>
-    <row r="159" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A159" s="1">
         <v>153</v>
       </c>
@@ -7173,7 +7187,7 @@
         <v>-24154608.848124608</v>
       </c>
     </row>
-    <row r="160" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A160" s="1">
         <v>90</v>
       </c>
@@ -7199,7 +7213,7 @@
         <v>-16167886.59997268</v>
       </c>
     </row>
-    <row r="161" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A161" s="1">
         <v>140</v>
       </c>
@@ -7225,7 +7239,7 @@
         <v>-22638508.371527731</v>
       </c>
     </row>
-    <row r="162" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A162" s="1">
         <v>156</v>
       </c>
@@ -7251,7 +7265,7 @@
         <v>-24492835.089039199</v>
       </c>
     </row>
-    <row r="163" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A163" s="1">
         <v>134</v>
       </c>
@@ -7277,7 +7291,7 @@
         <v>-21982881.119664621</v>
       </c>
     </row>
-    <row r="164" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A164" s="1">
         <v>151</v>
       </c>
@@ -7303,7 +7317,7 @@
         <v>-23938011.13032677</v>
       </c>
     </row>
-    <row r="165" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A165" s="1">
         <v>202</v>
       </c>
@@ -7329,7 +7343,7 @@
         <v>-28994383.926415041</v>
       </c>
     </row>
-    <row r="166" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A166" s="1">
         <v>165</v>
       </c>
@@ -7355,7 +7369,7 @@
         <v>-25501705.664275531</v>
       </c>
     </row>
-    <row r="167" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A167" s="1">
         <v>210</v>
       </c>
@@ -7381,7 +7395,7 @@
         <v>-29634495.11995155</v>
       </c>
     </row>
-    <row r="168" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A168" s="1">
         <v>191</v>
       </c>
@@ -7407,7 +7421,7 @@
         <v>-27920444.847109821</v>
       </c>
     </row>
-    <row r="169" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A169" s="1">
         <v>136</v>
       </c>
@@ -7433,7 +7447,7 @@
         <v>-22265049.73158399</v>
       </c>
     </row>
-    <row r="170" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A170" s="1">
         <v>137</v>
       </c>
@@ -7459,7 +7473,7 @@
         <v>-22351564.847165979</v>
       </c>
     </row>
-    <row r="171" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A171" s="1">
         <v>131</v>
       </c>
@@ -7485,7 +7499,7 @@
         <v>-21726416.165862981</v>
       </c>
     </row>
-    <row r="172" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A172" s="1">
         <v>206</v>
       </c>
@@ -7511,7 +7525,7 @@
         <v>-29378467.596528541</v>
       </c>
     </row>
-    <row r="173" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A173" s="1">
         <v>245</v>
       </c>
@@ -7537,7 +7551,7 @@
         <v>-32594021.97617263</v>
       </c>
     </row>
-    <row r="174" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A174" s="1">
         <v>133</v>
       </c>
@@ -7563,7 +7577,7 @@
         <v>-21892833.621158458</v>
       </c>
     </row>
-    <row r="175" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A175" s="1">
         <v>221</v>
       </c>
@@ -7589,7 +7603,7 @@
         <v>-30621273.13542933</v>
       </c>
     </row>
-    <row r="176" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A176" s="1">
         <v>154</v>
       </c>
@@ -7615,7 +7629,7 @@
         <v>-24265939.02159163</v>
       </c>
     </row>
-    <row r="177" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A177" s="1">
         <v>160</v>
       </c>
@@ -7641,7 +7655,7 @@
         <v>-24857640.272154111</v>
       </c>
     </row>
-    <row r="178" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A178" s="1">
         <v>178</v>
       </c>
@@ -7667,7 +7681,7 @@
         <v>-26658233.483635791</v>
       </c>
     </row>
-    <row r="179" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A179" s="1">
         <v>172</v>
       </c>
@@ -7693,7 +7707,7 @@
         <v>-26145165.512675472</v>
       </c>
     </row>
-    <row r="180" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A180" s="1">
         <v>185</v>
       </c>
@@ -7719,7 +7733,7 @@
         <v>-27478403.26057449</v>
       </c>
     </row>
-    <row r="181" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A181" s="1">
         <v>242</v>
       </c>
@@ -7745,7 +7759,7 @@
         <v>-32293740.797625799</v>
       </c>
     </row>
-    <row r="182" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A182" s="1">
         <v>164</v>
       </c>
@@ -7771,7 +7785,7 @@
         <v>-25406688.034707639</v>
       </c>
     </row>
-    <row r="183" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A183" s="1">
         <v>197</v>
       </c>
@@ -7797,7 +7811,7 @@
         <v>-28397544.724458389</v>
       </c>
     </row>
-    <row r="184" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A184" s="1">
         <v>212</v>
       </c>
@@ -7823,7 +7837,7 @@
         <v>-29819214.116156269</v>
       </c>
     </row>
-    <row r="185" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A185" s="1">
         <v>158</v>
       </c>
@@ -7849,7 +7863,7 @@
         <v>-24648935.824208301</v>
       </c>
     </row>
-    <row r="186" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A186" s="1">
         <v>118</v>
       </c>
@@ -7875,7 +7889,7 @@
         <v>-20065484.303639159</v>
       </c>
     </row>
-    <row r="187" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A187" s="1">
         <v>220</v>
       </c>
@@ -7901,7 +7915,7 @@
         <v>-30451179.388398599</v>
       </c>
     </row>
-    <row r="188" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A188" s="1">
         <v>240</v>
       </c>
@@ -7927,7 +7941,7 @@
         <v>-32040454.025694471</v>
       </c>
     </row>
-    <row r="189" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A189" s="1">
         <v>171</v>
       </c>
@@ -7953,7 +7967,7 @@
         <v>-26061792.14135794</v>
       </c>
     </row>
-    <row r="190" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A190" s="1">
         <v>204</v>
       </c>
@@ -7979,7 +7993,7 @@
         <v>-29194448.68111147</v>
       </c>
     </row>
-    <row r="191" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A191" s="1">
         <v>264</v>
       </c>
@@ -8005,7 +8019,7 @@
         <v>-33886993.188142717</v>
       </c>
     </row>
-    <row r="192" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A192" s="1">
         <v>192</v>
       </c>
@@ -8031,7 +8045,7 @@
         <v>-28010628.398912258</v>
       </c>
     </row>
-    <row r="193" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A193" s="1">
         <v>150</v>
       </c>
@@ -8057,7 +8071,7 @@
         <v>-23857218.771578498</v>
       </c>
     </row>
-    <row r="194" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A194" s="1">
         <v>159</v>
       </c>
@@ -8083,7 +8097,7 @@
         <v>-24753313.796164058</v>
       </c>
     </row>
-    <row r="195" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A195" s="1">
         <v>169</v>
       </c>
@@ -8109,7 +8123,7 @@
         <v>-25893654.489532668</v>
       </c>
     </row>
-    <row r="196" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A196" s="1">
         <v>205</v>
       </c>
@@ -8135,7 +8149,7 @@
         <v>-29303202.07670356</v>
       </c>
     </row>
-    <row r="197" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A197" s="1">
         <v>138</v>
       </c>
@@ -8161,7 +8175,7 @@
         <v>-22441565.305101208</v>
       </c>
     </row>
-    <row r="198" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A198" s="1">
         <v>201</v>
       </c>
@@ -8187,7 +8201,7 @@
         <v>-28874027.030398179</v>
       </c>
     </row>
-    <row r="199" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A199" s="1">
         <v>175</v>
       </c>
@@ -8213,7 +8227,7 @@
         <v>-26423478.600556269</v>
       </c>
     </row>
-    <row r="200" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A200" s="1">
         <v>217</v>
       </c>
@@ -8239,7 +8253,7 @@
         <v>-30175872.624971721</v>
       </c>
     </row>
-    <row r="201" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A201" s="1">
         <v>176</v>
       </c>
@@ -8265,7 +8279,7 @@
         <v>-26489037.091331501</v>
       </c>
     </row>
-    <row r="202" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A202" s="1">
         <v>261</v>
       </c>
@@ -8291,7 +8305,7 @@
         <v>-33541070.840672951</v>
       </c>
     </row>
-    <row r="203" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A203" s="1">
         <v>263</v>
       </c>
@@ -8317,7 +8331,7 @@
         <v>-33764123.036693297</v>
       </c>
     </row>
-    <row r="204" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A204" s="1">
         <v>243</v>
       </c>
@@ -8343,7 +8357,7 @@
         <v>-32437124.28574248</v>
       </c>
     </row>
-    <row r="205" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A205" s="1">
         <v>223</v>
       </c>
@@ -8369,7 +8383,7 @@
         <v>-30937048.20714929</v>
       </c>
     </row>
-    <row r="206" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A206" s="1">
         <v>224</v>
       </c>
@@ -8395,7 +8409,7 @@
         <v>-31034315.26624541</v>
       </c>
     </row>
-    <row r="207" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A207" s="1">
         <v>225</v>
       </c>
@@ -8421,7 +8435,7 @@
         <v>-31143446.647039909</v>
       </c>
     </row>
-    <row r="208" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A208" s="1">
         <v>323</v>
       </c>
@@ -8447,7 +8461,7 @@
         <v>-37495741.816134647</v>
       </c>
     </row>
-    <row r="209" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A209" s="1">
         <v>183</v>
       </c>
@@ -8473,7 +8487,7 @@
         <v>-27265203.425400231</v>
       </c>
     </row>
-    <row r="210" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A210" s="1">
         <v>285</v>
       </c>
@@ -8499,7 +8513,7 @@
         <v>-35353127.946800306</v>
       </c>
     </row>
-    <row r="211" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A211" s="1">
         <v>229</v>
       </c>
@@ -8525,7 +8539,7 @@
         <v>-31413520.46549144</v>
       </c>
     </row>
-    <row r="212" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A212" s="1">
         <v>193</v>
       </c>
@@ -8551,7 +8565,7 @@
         <v>-28079317.269045789</v>
       </c>
     </row>
-    <row r="213" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A213" s="1">
         <v>203</v>
       </c>
@@ -8577,7 +8591,7 @@
         <v>-29090947.755599339</v>
       </c>
     </row>
-    <row r="214" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A214" s="1">
         <v>196</v>
       </c>
@@ -8603,7 +8617,7 @@
         <v>-28306879.339755259</v>
       </c>
     </row>
-    <row r="215" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A215" s="1">
         <v>241</v>
       </c>
@@ -8629,7 +8643,7 @@
         <v>-32174007.751304559</v>
       </c>
     </row>
-    <row r="216" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A216" s="1">
         <v>280</v>
       </c>
@@ -8655,7 +8669,7 @@
         <v>-34738177.962013252</v>
       </c>
     </row>
-    <row r="217" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A217" s="1">
         <v>284</v>
       </c>
@@ -8681,7 +8695,7 @@
         <v>-35263818.824782997</v>
       </c>
     </row>
-    <row r="218" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A218" s="1">
         <v>177</v>
       </c>
@@ -8707,7 +8721,7 @@
         <v>-26563353.980567198</v>
       </c>
     </row>
-    <row r="219" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A219" s="1">
         <v>195</v>
       </c>
@@ -8733,7 +8747,7 @@
         <v>-28232508.62264578</v>
       </c>
     </row>
-    <row r="220" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A220" s="1">
         <v>218</v>
       </c>
@@ -8759,7 +8773,7 @@
         <v>-30266267.794035021</v>
       </c>
     </row>
-    <row r="221" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A221" s="1">
         <v>214</v>
       </c>
@@ -8785,7 +8799,7 @@
         <v>-29983197.194517858</v>
       </c>
     </row>
-    <row r="222" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A222" s="1">
         <v>157</v>
       </c>
@@ -8811,7 +8825,7 @@
         <v>-24557516.942088518</v>
       </c>
     </row>
-    <row r="223" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A223" s="1">
         <v>190</v>
       </c>
@@ -8837,7 +8851,7 @@
         <v>-27816733.266202562</v>
       </c>
     </row>
-    <row r="224" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A224" s="1">
         <v>342</v>
       </c>
@@ -8863,7 +8877,7 @@
         <v>-38521802.151487932</v>
       </c>
     </row>
-    <row r="225" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A225" s="1">
         <v>188</v>
       </c>
@@ -8889,7 +8903,7 @@
         <v>-27708231.387629472</v>
       </c>
     </row>
-    <row r="226" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A226" s="1">
         <v>228</v>
       </c>
@@ -8915,7 +8929,7 @@
         <v>-31334543.366699841</v>
       </c>
     </row>
-    <row r="227" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A227" s="1">
         <v>207</v>
       </c>
@@ -8941,7 +8955,7 @@
         <v>-29475673.00522561</v>
       </c>
     </row>
-    <row r="228" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A228" s="1">
         <v>237</v>
       </c>
@@ -8967,7 +8981,7 @@
         <v>-31806050.60947787</v>
       </c>
     </row>
-    <row r="229" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A229" s="1">
         <v>283</v>
       </c>
@@ -8993,7 +9007,7 @@
         <v>-35156205.446397409</v>
       </c>
     </row>
-    <row r="230" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A230" s="1">
         <v>168</v>
       </c>
@@ -9019,7 +9033,7 @@
         <v>-25808385.95005611</v>
       </c>
     </row>
-    <row r="231" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A231" s="1">
         <v>267</v>
       </c>
@@ -9045,7 +9059,7 @@
         <v>-34092435.238384508</v>
       </c>
     </row>
-    <row r="232" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A232" s="1">
         <v>244</v>
       </c>
@@ -9071,7 +9085,7 @@
         <v>-32504481.453595951</v>
       </c>
     </row>
-    <row r="233" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A233" s="1">
         <v>304</v>
       </c>
@@ -9097,7 +9111,7 @@
         <v>-36466516.174365088</v>
       </c>
     </row>
-    <row r="234" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A234" s="1">
         <v>174</v>
       </c>
@@ -9123,7 +9137,7 @@
         <v>-26360725.335277699</v>
       </c>
     </row>
-    <row r="235" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A235" s="1">
         <v>219</v>
       </c>
@@ -9149,7 +9163,7 @@
         <v>-30329341.043881539</v>
       </c>
     </row>
-    <row r="236" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A236" s="1">
         <v>230</v>
       </c>
@@ -9175,7 +9189,7 @@
         <v>-31467951.553617109</v>
       </c>
     </row>
-    <row r="237" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A237" s="1">
         <v>179</v>
       </c>
@@ -9201,7 +9215,7 @@
         <v>-26743842.26698672</v>
       </c>
     </row>
-    <row r="238" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A238" s="1">
         <v>300</v>
       </c>
@@ -9227,7 +9241,7 @@
         <v>-36010213.097720198</v>
       </c>
     </row>
-    <row r="239" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A239" s="1">
         <v>341</v>
       </c>
@@ -9253,7 +9267,7 @@
         <v>-38363851.895169027</v>
       </c>
     </row>
-    <row r="240" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A240" s="1">
         <v>213</v>
       </c>
@@ -9279,7 +9293,7 @@
         <v>-29906068.749146588</v>
       </c>
     </row>
-    <row r="241" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A241" s="1">
         <v>265</v>
       </c>
@@ -9305,7 +9319,7 @@
         <v>-33984670.566242613</v>
       </c>
     </row>
-    <row r="242" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A242" s="1">
         <v>282</v>
       </c>
@@ -9331,7 +9345,7 @@
         <v>-35027115.349456809</v>
       </c>
     </row>
-    <row r="243" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A243" s="1">
         <v>186</v>
       </c>
@@ -9357,7 +9371,7 @@
         <v>-27526686.218875181</v>
       </c>
     </row>
-    <row r="244" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A244" s="1">
         <v>381</v>
       </c>
@@ -9383,7 +9397,7 @@
         <v>-40351311.353092067</v>
       </c>
     </row>
-    <row r="245" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A245" s="1">
         <v>216</v>
       </c>
@@ -9409,7 +9423,7 @@
         <v>-30121303.304182589</v>
       </c>
     </row>
-    <row r="246" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A246" s="1">
         <v>320</v>
       </c>
@@ -9435,7 +9449,7 @@
         <v>-37105743.680042841</v>
       </c>
     </row>
-    <row r="247" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A247" s="1">
         <v>281</v>
       </c>
@@ -9461,7 +9475,7 @@
         <v>-34898524.966012478</v>
       </c>
     </row>
-    <row r="248" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A248" s="1">
         <v>194</v>
       </c>
@@ -9487,7 +9501,7 @@
         <v>-28165006.35086805</v>
       </c>
     </row>
-    <row r="249" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A249" s="1">
         <v>189</v>
       </c>
@@ -9513,7 +9527,7 @@
         <v>-27758271.264069121</v>
       </c>
     </row>
-    <row r="250" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A250" s="1">
         <v>211</v>
       </c>
@@ -9539,7 +9553,7 @@
         <v>-29712313.760585241</v>
       </c>
     </row>
-    <row r="251" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A251" s="1">
         <v>231</v>
       </c>
@@ -9565,7 +9579,7 @@
         <v>-31493517.556871518</v>
       </c>
     </row>
-    <row r="252" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A252" s="1">
         <v>209</v>
       </c>
@@ -9591,7 +9605,7 @@
         <v>-29554124.498278189</v>
       </c>
     </row>
-    <row r="253" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A253" s="1">
         <v>226</v>
       </c>
@@ -9617,7 +9631,7 @@
         <v>-31219401.96331742</v>
       </c>
     </row>
-    <row r="254" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A254" s="1">
         <v>340</v>
       </c>
@@ -9643,7 +9657,7 @@
         <v>-38198156.713614538</v>
       </c>
     </row>
-    <row r="255" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A255" s="1">
         <v>277</v>
       </c>
@@ -9669,7 +9683,7 @@
         <v>-34523824.338452898</v>
       </c>
     </row>
-    <row r="256" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A256" s="1">
         <v>302</v>
       </c>
@@ -9695,7 +9709,7 @@
         <v>-36284860.424380399</v>
       </c>
     </row>
-    <row r="257" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A257" s="1">
         <v>215</v>
       </c>
@@ -9721,7 +9735,7 @@
         <v>-30052103.662176311</v>
       </c>
     </row>
-    <row r="258" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A258" s="1">
         <v>262</v>
       </c>
@@ -9747,7 +9761,7 @@
         <v>-33652326.192210123</v>
       </c>
     </row>
-    <row r="259" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A259" s="1">
         <v>301</v>
       </c>
@@ -9773,7 +9787,7 @@
         <v>-36151144.665524587</v>
       </c>
     </row>
-    <row r="260" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A260" s="1">
         <v>248</v>
       </c>
@@ -9799,7 +9813,7 @@
         <v>-32800851.053013299</v>
       </c>
     </row>
-    <row r="261" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A261" s="1">
         <v>199</v>
       </c>
@@ -9825,7 +9839,7 @@
         <v>-28534206.816760048</v>
       </c>
     </row>
-    <row r="262" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A262" s="1">
         <v>227</v>
       </c>
@@ -9851,7 +9865,7 @@
         <v>-31282899.589007061</v>
       </c>
     </row>
-    <row r="263" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A263" s="1">
         <v>289</v>
       </c>
@@ -9877,7 +9891,7 @@
         <v>-35568649.952794909</v>
       </c>
     </row>
-    <row r="264" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A264" s="1">
         <v>198</v>
       </c>
@@ -9903,7 +9917,7 @@
         <v>-28479006.97321365</v>
       </c>
     </row>
-    <row r="265" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A265" s="1">
         <v>321</v>
       </c>
@@ -9929,7 +9943,7 @@
         <v>-37242724.217482418</v>
       </c>
     </row>
-    <row r="266" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A266" s="1">
         <v>268</v>
       </c>
@@ -9955,7 +9969,7 @@
         <v>-34135054.048729129</v>
       </c>
     </row>
-    <row r="267" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A267" s="1">
         <v>272</v>
       </c>
@@ -9981,7 +9995,7 @@
         <v>-34302595.950710043</v>
       </c>
     </row>
-    <row r="268" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A268" s="1">
         <v>250</v>
       </c>
@@ -10007,7 +10021,7 @@
         <v>-32891123.635888521</v>
       </c>
     </row>
-    <row r="269" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A269" s="1">
         <v>380</v>
       </c>
@@ -10033,7 +10047,7 @@
         <v>-40194524.323305592</v>
       </c>
     </row>
-    <row r="270" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A270" s="1">
         <v>236</v>
       </c>
@@ -10059,7 +10073,7 @@
         <v>-31751523.98403604</v>
       </c>
     </row>
-    <row r="271" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A271" s="1">
         <v>251</v>
       </c>
@@ -10085,7 +10099,7 @@
         <v>-32932375.933439631</v>
       </c>
     </row>
-    <row r="272" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A272" s="1">
         <v>249</v>
       </c>
@@ -10111,7 +10125,7 @@
         <v>-32848993.23267474</v>
       </c>
     </row>
-    <row r="273" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A273" s="1">
         <v>253</v>
       </c>
@@ -10137,7 +10151,7 @@
         <v>-33030639.19468176</v>
       </c>
     </row>
-    <row r="274" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A274" s="1">
         <v>254</v>
       </c>
@@ -10163,7 +10177,7 @@
         <v>-33079452.644283459</v>
       </c>
     </row>
-    <row r="275" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A275" s="1">
         <v>239</v>
       </c>
@@ -10189,7 +10203,7 @@
         <v>-31931694.245808639</v>
       </c>
     </row>
-    <row r="276" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A276" s="1">
         <v>232</v>
       </c>
@@ -10215,7 +10229,7 @@
         <v>-31533550.766437169</v>
       </c>
     </row>
-    <row r="277" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A277" s="1">
         <v>247</v>
       </c>
@@ -10241,7 +10255,7 @@
         <v>-32747874.097225491</v>
       </c>
     </row>
-    <row r="278" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A278" s="1">
         <v>269</v>
       </c>
@@ -10267,7 +10281,7 @@
         <v>-34179327.282312371</v>
       </c>
     </row>
-    <row r="279" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A279" s="1">
         <v>238</v>
       </c>
@@ -10293,7 +10307,7 @@
         <v>-31878142.00778465</v>
       </c>
     </row>
-    <row r="280" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A280" s="1">
         <v>260</v>
       </c>
@@ -10319,7 +10333,7 @@
         <v>-33415754.847984221</v>
       </c>
     </row>
-    <row r="281" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A281" s="1">
         <v>257</v>
       </c>
@@ -10345,7 +10359,7 @@
         <v>-33205396.594672222</v>
       </c>
     </row>
-    <row r="282" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A282" s="1">
         <v>383</v>
       </c>
@@ -10371,7 +10385,7 @@
         <v>-40573918.27103579</v>
       </c>
     </row>
-    <row r="283" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A283" s="1">
         <v>246</v>
       </c>
@@ -10397,7 +10411,7 @@
         <v>-32669882.89750747</v>
       </c>
     </row>
-    <row r="284" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A284" s="1">
         <v>256</v>
       </c>
@@ -10423,7 +10437,7 @@
         <v>-33161153.268059459</v>
       </c>
     </row>
-    <row r="285" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A285" s="1">
         <v>303</v>
       </c>
@@ -10449,7 +10463,7 @@
         <v>-36364891.814815</v>
       </c>
     </row>
-    <row r="286" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A286" s="1">
         <v>252</v>
       </c>
@@ -10475,7 +10489,7 @@
         <v>-32974302.657913271</v>
       </c>
     </row>
-    <row r="287" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A287" s="1">
         <v>344</v>
       </c>
@@ -10501,7 +10515,7 @@
         <v>-38713778.969788827</v>
       </c>
     </row>
-    <row r="288" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A288" s="1">
         <v>271</v>
       </c>
@@ -10527,7 +10541,7 @@
         <v>-34251513.232363783</v>
       </c>
     </row>
-    <row r="289" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A289" s="1">
         <v>345</v>
       </c>
@@ -10553,7 +10567,7 @@
         <v>-38788338.086997688</v>
       </c>
     </row>
-    <row r="290" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A290" s="1">
         <v>259</v>
       </c>
@@ -10579,7 +10593,7 @@
         <v>-33356123.945180491</v>
       </c>
     </row>
-    <row r="291" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A291" s="1">
         <v>360</v>
       </c>
@@ -10605,7 +10619,7 @@
         <v>-39256436.583475143</v>
       </c>
     </row>
-    <row r="292" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A292" s="1">
         <v>305</v>
       </c>
@@ -10631,7 +10645,7 @@
         <v>-36531701.066393383</v>
       </c>
     </row>
-    <row r="293" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A293" s="1">
         <v>270</v>
       </c>
@@ -10657,7 +10671,7 @@
         <v>-34212577.836370088</v>
       </c>
     </row>
-    <row r="294" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A294" s="1">
         <v>234</v>
       </c>
@@ -10683,7 +10697,7 @@
         <v>-31642066.19918488</v>
       </c>
     </row>
-    <row r="295" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A295" s="1">
         <v>291</v>
       </c>
@@ -10709,7 +10723,7 @@
         <v>-35659077.874092422</v>
       </c>
     </row>
-    <row r="296" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A296" s="1">
         <v>235</v>
       </c>
@@ -10735,7 +10749,7 @@
         <v>-31678694.698094729</v>
       </c>
     </row>
-    <row r="297" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A297" s="1">
         <v>287</v>
       </c>
@@ -10761,7 +10775,7 @@
         <v>-35479135.4070701</v>
       </c>
     </row>
-    <row r="298" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A298" s="1">
         <v>401</v>
       </c>
@@ -10787,7 +10801,7 @@
         <v>-41313574.732636593</v>
       </c>
     </row>
-    <row r="299" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A299" s="1">
         <v>286</v>
       </c>
@@ -10813,7 +10827,7 @@
         <v>-35421206.491761252</v>
       </c>
     </row>
-    <row r="300" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A300" s="1">
         <v>208</v>
       </c>
@@ -10839,7 +10853,7 @@
         <v>-29514936.535660211</v>
       </c>
     </row>
-    <row r="301" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A301" s="1">
         <v>258</v>
       </c>
@@ -10865,7 +10879,7 @@
         <v>-33286925.736626901</v>
       </c>
     </row>
-    <row r="302" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A302" s="1">
         <v>309</v>
       </c>
@@ -10891,7 +10905,7 @@
         <v>-36740566.441042453</v>
       </c>
     </row>
-    <row r="303" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A303" s="1">
         <v>306</v>
       </c>
@@ -10917,7 +10931,7 @@
         <v>-36588946.638909563</v>
       </c>
     </row>
-    <row r="304" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A304" s="1">
         <v>361</v>
       </c>
@@ -10943,7 +10957,7 @@
         <v>-39392251.972249307</v>
       </c>
     </row>
-    <row r="305" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A305" s="1">
         <v>322</v>
       </c>
@@ -10969,7 +10983,7 @@
         <v>-37357632.691429473</v>
       </c>
     </row>
-    <row r="306" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A306" s="1">
         <v>299</v>
       </c>
@@ -10995,7 +11009,7 @@
         <v>-35900604.206668273</v>
       </c>
     </row>
-    <row r="307" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A307" s="1">
         <v>233</v>
       </c>
@@ -11021,7 +11035,7 @@
         <v>-31587345.881049391</v>
       </c>
     </row>
-    <row r="308" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A308" s="1">
         <v>310</v>
       </c>
@@ -11047,7 +11061,7 @@
         <v>-36807810.78135372</v>
       </c>
     </row>
-    <row r="309" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A309" s="1">
         <v>503</v>
       </c>
@@ -11073,7 +11087,7 @@
         <v>-45384746.00911358</v>
       </c>
     </row>
-    <row r="310" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A310" s="1">
         <v>296</v>
       </c>
@@ -11099,7 +11113,7 @@
         <v>-35805948.540518723</v>
       </c>
     </row>
-    <row r="311" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A311" s="1">
         <v>288</v>
       </c>
@@ -11125,7 +11139,7 @@
         <v>-35521025.418329641</v>
       </c>
     </row>
-    <row r="312" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A312" s="1">
         <v>274</v>
       </c>
@@ -11151,7 +11165,7 @@
         <v>-34383869.046116903</v>
       </c>
     </row>
-    <row r="313" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A313" s="1">
         <v>362</v>
       </c>
@@ -11177,7 +11191,7 @@
         <v>-39495735.320972249</v>
       </c>
     </row>
-    <row r="314" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A314" s="1">
         <v>324</v>
       </c>
@@ -11203,7 +11217,7 @@
         <v>-37586172.862826772</v>
       </c>
     </row>
-    <row r="315" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A315" s="1">
         <v>307</v>
       </c>
@@ -11229,7 +11243,7 @@
         <v>-36634211.68199572</v>
       </c>
     </row>
-    <row r="316" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A316" s="1">
         <v>266</v>
       </c>
@@ -11255,7 +11269,7 @@
         <v>-34043806.976707444</v>
       </c>
     </row>
-    <row r="317" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A317" s="1">
         <v>279</v>
       </c>
@@ -11281,7 +11295,7 @@
         <v>-34621843.818640262</v>
       </c>
     </row>
-    <row r="318" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A318" s="1">
         <v>327</v>
       </c>
@@ -11307,7 +11321,7 @@
         <v>-37729405.133225366</v>
       </c>
     </row>
-    <row r="319" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A319" s="1">
         <v>462</v>
       </c>
@@ -11333,7 +11347,7 @@
         <v>-43858823.752786897</v>
       </c>
     </row>
-    <row r="320" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A320" s="1">
         <v>443</v>
       </c>
@@ -11359,7 +11373,7 @@
         <v>-43098302.977239713</v>
       </c>
     </row>
-    <row r="321" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A321" s="1">
         <v>384</v>
       </c>
@@ -11385,7 +11399,7 @@
         <v>-40701958.503828242</v>
       </c>
     </row>
-    <row r="322" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A322" s="1">
         <v>333</v>
       </c>
@@ -11411,7 +11425,7 @@
         <v>-37951755.954726033</v>
       </c>
     </row>
-    <row r="323" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A323" s="1">
         <v>290</v>
       </c>
@@ -11437,7 +11451,7 @@
         <v>-35609333.47380276</v>
       </c>
     </row>
-    <row r="324" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A324" s="1">
         <v>400</v>
       </c>
@@ -11463,7 +11477,7 @@
         <v>-41174036.311061174</v>
       </c>
     </row>
-    <row r="325" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A325" s="1">
         <v>255</v>
       </c>
@@ -11489,7 +11503,7 @@
         <v>-33115142.174641989</v>
       </c>
     </row>
-    <row r="326" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A326" s="1">
         <v>347</v>
       </c>
@@ -11515,7 +11529,7 @@
         <v>-38880407.362242721</v>
       </c>
     </row>
-    <row r="327" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A327" s="1">
         <v>343</v>
       </c>
@@ -11541,7 +11555,7 @@
         <v>-38637644.575453952</v>
       </c>
     </row>
-    <row r="328" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A328" s="1">
         <v>420</v>
       </c>
@@ -11567,7 +11581,7 @@
         <v>-41938873.196858726</v>
       </c>
     </row>
-    <row r="329" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A329" s="1">
         <v>329</v>
       </c>
@@ -11593,7 +11607,7 @@
         <v>-37808518.417004481</v>
       </c>
     </row>
-    <row r="330" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A330" s="1">
         <v>421</v>
       </c>
@@ -11619,7 +11633,7 @@
         <v>-42065782.221047454</v>
       </c>
     </row>
-    <row r="331" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A331" s="1">
         <v>366</v>
       </c>
@@ -11645,7 +11659,7 @@
         <v>-39773408.97212363</v>
       </c>
     </row>
-    <row r="332" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A332" s="1">
         <v>424</v>
       </c>
@@ -11671,7 +11685,7 @@
         <v>-42356757.349558488</v>
       </c>
     </row>
-    <row r="333" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A333" s="1">
         <v>326</v>
       </c>
@@ -11697,7 +11711,7 @@
         <v>-37682584.044226997</v>
       </c>
     </row>
-    <row r="334" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A334" s="1">
         <v>293</v>
       </c>
@@ -11723,7 +11737,7 @@
         <v>-35728003.613099828</v>
       </c>
     </row>
-    <row r="335" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A335" s="1">
         <v>346</v>
       </c>
@@ -11749,7 +11763,7 @@
         <v>-38840020.028817907</v>
       </c>
     </row>
-    <row r="336" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A336" s="1">
         <v>325</v>
       </c>
@@ -11775,7 +11789,7 @@
         <v>-37641616.739650063</v>
       </c>
     </row>
-    <row r="337" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A337" s="1">
         <v>294</v>
       </c>
@@ -11801,7 +11815,7 @@
         <v>-35750845.025919683</v>
       </c>
     </row>
-    <row r="338" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A338" s="1">
         <v>440</v>
       </c>
@@ -11827,7 +11841,7 @@
         <v>-42787745.141957358</v>
       </c>
     </row>
-    <row r="339" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A339" s="1">
         <v>273</v>
       </c>
@@ -11853,7 +11867,7 @@
         <v>-34339068.713363171</v>
       </c>
     </row>
-    <row r="340" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A340" s="1">
         <v>482</v>
       </c>
@@ -11879,7 +11893,7 @@
         <v>-44553954.981645308</v>
       </c>
     </row>
-    <row r="341" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A341" s="1">
         <v>460</v>
       </c>
@@ -11905,7 +11919,7 @@
         <v>-43633699.817626849</v>
       </c>
     </row>
-    <row r="342" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A342" s="1">
         <v>275</v>
       </c>
@@ -11931,7 +11945,7 @@
         <v>-34432375.369693957</v>
       </c>
     </row>
-    <row r="343" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A343" s="1">
         <v>292</v>
       </c>
@@ -11957,7 +11971,7 @@
         <v>-35695738.214540347</v>
       </c>
     </row>
-    <row r="344" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A344" s="1">
         <v>363</v>
       </c>
@@ -11983,7 +11997,7 @@
         <v>-39596067.870216072</v>
       </c>
     </row>
-    <row r="345" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A345" s="1">
         <v>441</v>
       </c>
@@ -12009,7 +12023,7 @@
         <v>-42897077.604893707</v>
       </c>
     </row>
-    <row r="346" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A346" s="1">
         <v>444</v>
       </c>
@@ -12035,7 +12049,7 @@
         <v>-43221074.922246017</v>
       </c>
     </row>
-    <row r="347" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A347" s="1">
         <v>278</v>
       </c>
@@ -12061,7 +12075,7 @@
         <v>-34583480.696033701</v>
       </c>
     </row>
-    <row r="348" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A348" s="1">
         <v>315</v>
       </c>
@@ -12087,7 +12101,7 @@
         <v>-36942673.211311623</v>
       </c>
     </row>
-    <row r="349" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A349" s="1">
         <v>367</v>
       </c>
@@ -12113,7 +12127,7 @@
         <v>-39815822.842049077</v>
       </c>
     </row>
-    <row r="350" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A350" s="1">
         <v>352</v>
       </c>
@@ -12139,7 +12153,7 @@
         <v>-39020160.502261452</v>
       </c>
     </row>
-    <row r="351" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A351" s="1">
         <v>385</v>
       </c>
@@ -12165,7 +12179,7 @@
         <v>-40769120.303452753</v>
       </c>
     </row>
-    <row r="352" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A352" s="1">
         <v>308</v>
       </c>
@@ -12191,7 +12205,7 @@
         <v>-36687880.327785857</v>
       </c>
     </row>
-    <row r="353" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A353" s="1">
         <v>447</v>
       </c>
@@ -12217,7 +12231,7 @@
         <v>-43412093.653045788</v>
       </c>
     </row>
-    <row r="354" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A354" s="1">
         <v>350</v>
       </c>
@@ -12243,7 +12257,7 @@
         <v>-38968711.254467197</v>
       </c>
     </row>
-    <row r="355" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A355" s="1">
         <v>382</v>
       </c>
@@ -12269,7 +12283,7 @@
         <v>-40478370.695407227</v>
       </c>
     </row>
-    <row r="356" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A356" s="1">
         <v>404</v>
       </c>
@@ -12295,7 +12309,7 @@
         <v>-41555162.117342569</v>
       </c>
     </row>
-    <row r="357" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A357" s="1">
         <v>407</v>
       </c>
@@ -12321,7 +12335,7 @@
         <v>-41741205.309725702</v>
       </c>
     </row>
-    <row r="358" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A358" s="1">
         <v>316</v>
       </c>
@@ -12347,7 +12361,7 @@
         <v>-36969801.368001238</v>
       </c>
     </row>
-    <row r="359" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A359" s="1">
         <v>353</v>
       </c>
@@ -12373,7 +12387,7 @@
         <v>-39059556.42541454</v>
       </c>
     </row>
-    <row r="360" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A360" s="1">
         <v>328</v>
       </c>
@@ -12399,7 +12413,7 @@
         <v>-37770485.399252631</v>
       </c>
     </row>
-    <row r="361" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A361" s="1">
         <v>370</v>
       </c>
@@ -12425,7 +12439,7 @@
         <v>-39887880.012852691</v>
       </c>
     </row>
-    <row r="362" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A362" s="1">
         <v>422</v>
       </c>
@@ -12451,7 +12465,7 @@
         <v>-42175348.028662428</v>
       </c>
     </row>
-    <row r="363" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A363" s="1">
         <v>426</v>
       </c>
@@ -12477,7 +12491,7 @@
         <v>-42500333.61849685</v>
       </c>
     </row>
-    <row r="364" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A364" s="1">
         <v>406</v>
       </c>
@@ -12503,7 +12517,7 @@
         <v>-41680459.335475117</v>
       </c>
     </row>
-    <row r="365" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A365" s="1">
         <v>313</v>
       </c>
@@ -12529,7 +12543,7 @@
         <v>-36891105.320225887</v>
       </c>
     </row>
-    <row r="366" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A366" s="1">
         <v>480</v>
       </c>
@@ -12555,7 +12569,7 @@
         <v>-44337319.808602497</v>
       </c>
     </row>
-    <row r="367" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A367" s="1">
         <v>330</v>
       </c>
@@ -12581,7 +12595,7 @@
         <v>-37857811.099027291</v>
       </c>
     </row>
-    <row r="368" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A368" s="1">
         <v>442</v>
       </c>
@@ -12607,7 +12621,7 @@
         <v>-42992538.943483807</v>
       </c>
     </row>
-    <row r="369" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A369" s="1">
         <v>500</v>
       </c>
@@ -12633,7 +12647,7 @@
         <v>-45062876.91745986</v>
       </c>
     </row>
-    <row r="370" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A370" s="1">
         <v>365</v>
       </c>
@@ -12659,7 +12673,7 @@
         <v>-39718710.408832327</v>
       </c>
     </row>
-    <row r="371" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A371" s="1">
         <v>386</v>
       </c>
@@ -12685,7 +12699,7 @@
         <v>-40793539.198263109</v>
       </c>
     </row>
-    <row r="372" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A372" s="1">
         <v>520</v>
       </c>
@@ -12711,7 +12725,7 @@
         <v>-45845560.212987967</v>
       </c>
     </row>
-    <row r="373" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A373" s="1">
         <v>276</v>
       </c>
@@ -12737,7 +12751,7 @@
         <v>-34469310.511782274</v>
       </c>
     </row>
-    <row r="374" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A374" s="1">
         <v>405</v>
       </c>
@@ -12763,7 +12777,7 @@
         <v>-41628113.606775343</v>
       </c>
     </row>
-    <row r="375" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A375" s="1">
         <v>334</v>
       </c>
@@ -12789,7 +12803,7 @@
         <v>-37975976.331653029</v>
       </c>
     </row>
-    <row r="376" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A376" s="1">
         <v>349</v>
       </c>
@@ -12815,7 +12829,7 @@
         <v>-38949397.492258251</v>
       </c>
     </row>
-    <row r="377" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A377" s="1">
         <v>481</v>
       </c>
@@ -12841,7 +12855,7 @@
         <v>-44451027.844122343</v>
       </c>
     </row>
-    <row r="378" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A378" s="1">
         <v>314</v>
       </c>
@@ -12867,7 +12881,7 @@
         <v>-36914113.788497403</v>
       </c>
     </row>
-    <row r="379" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A379" s="1">
         <v>351</v>
       </c>
@@ -12893,7 +12907,7 @@
         <v>-38989474.507882573</v>
       </c>
     </row>
-    <row r="380" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A380" s="1">
         <v>403</v>
       </c>
@@ -12919,7 +12933,7 @@
         <v>-41487274.239536837</v>
       </c>
     </row>
-    <row r="381" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A381" s="1">
         <v>461</v>
       </c>
@@ -12945,7 +12959,7 @@
         <v>-43735471.107902557</v>
       </c>
     </row>
-    <row r="382" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A382" s="1">
         <v>376</v>
       </c>
@@ -12971,7 +12985,7 @@
         <v>-40025814.368899703</v>
       </c>
     </row>
-    <row r="383" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A383" s="1">
         <v>311</v>
       </c>
@@ -12997,7 +13011,7 @@
         <v>-36837298.803013973</v>
       </c>
     </row>
-    <row r="384" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A384" s="1">
         <v>387</v>
       </c>
@@ -13023,7 +13037,7 @@
         <v>-40828100.494870178</v>
       </c>
     </row>
-    <row r="385" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A385" s="1">
         <v>423</v>
       </c>
@@ -13049,7 +13063,7 @@
         <v>-42269485.919582017</v>
       </c>
     </row>
-    <row r="386" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A386" s="1">
         <v>348</v>
       </c>
@@ -13075,7 +13089,7 @@
         <v>-38920912.020443529</v>
       </c>
     </row>
-    <row r="387" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A387" s="1">
         <v>337</v>
       </c>
@@ -13101,7 +13115,7 @@
         <v>-38059255.309852898</v>
       </c>
     </row>
-    <row r="388" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A388" s="1">
         <v>339</v>
       </c>
@@ -13127,7 +13141,7 @@
         <v>-38096828.935006268</v>
       </c>
     </row>
-    <row r="389" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A389" s="1">
         <v>463</v>
       </c>
@@ -13153,7 +13167,7 @@
         <v>-43928350.684974857</v>
       </c>
     </row>
-    <row r="390" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A390" s="1">
         <v>501</v>
       </c>
@@ -13179,7 +13193,7 @@
         <v>-45187736.924194947</v>
       </c>
     </row>
-    <row r="391" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A391" s="1">
         <v>335</v>
       </c>
@@ -13205,7 +13219,7 @@
         <v>-38003809.4492139</v>
       </c>
     </row>
-    <row r="392" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A392" s="1">
         <v>332</v>
       </c>
@@ -13231,7 +13245,7 @@
         <v>-37919367.148674443</v>
       </c>
     </row>
-    <row r="393" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A393" s="1">
         <v>297</v>
       </c>
@@ -13257,7 +13271,7 @@
         <v>-35824325.356634907</v>
       </c>
     </row>
-    <row r="394" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A394" s="1">
         <v>425</v>
       </c>
@@ -13283,7 +13297,7 @@
         <v>-42431206.877922669</v>
       </c>
     </row>
-    <row r="395" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A395" s="1">
         <v>331</v>
       </c>
@@ -13309,7 +13323,7 @@
         <v>-37888969.574285753</v>
       </c>
     </row>
-    <row r="396" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A396" s="1">
         <v>388</v>
       </c>
@@ -13335,7 +13349,7 @@
         <v>-40865813.948726639</v>
       </c>
     </row>
-    <row r="397" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A397" s="1">
         <v>369</v>
       </c>
@@ -13361,7 +13375,7 @@
         <v>-39848800.703095406</v>
       </c>
     </row>
-    <row r="398" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A398" s="1">
         <v>319</v>
       </c>
@@ -13387,7 +13401,7 @@
         <v>-37014110.625816308</v>
       </c>
     </row>
-    <row r="399" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A399" s="1">
         <v>364</v>
       </c>
@@ -13413,7 +13427,7 @@
         <v>-39680089.642639682</v>
       </c>
     </row>
-    <row r="400" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A400" s="1">
         <v>402</v>
       </c>
@@ -13439,7 +13453,7 @@
         <v>-41418003.381857291</v>
       </c>
     </row>
-    <row r="401" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A401" s="1">
         <v>317</v>
       </c>
@@ -13465,7 +13479,7 @@
         <v>-36983511.126785077</v>
       </c>
     </row>
-    <row r="402" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A402" s="1">
         <v>446</v>
       </c>
@@ -13491,7 +13505,7 @@
         <v>-43348901.171376593</v>
       </c>
     </row>
-    <row r="403" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A403" s="1">
         <v>445</v>
       </c>
@@ -13517,7 +13531,7 @@
         <v>-43293823.886245467</v>
       </c>
     </row>
-    <row r="404" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A404" s="1">
         <v>504</v>
       </c>
@@ -13543,7 +13557,7 @@
         <v>-45465766.664907359</v>
       </c>
     </row>
-    <row r="405" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A405" s="1">
         <v>544</v>
       </c>
@@ -13569,7 +13583,7 @@
         <v>-46906371.371082529</v>
       </c>
     </row>
-    <row r="406" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A406" s="1">
         <v>464</v>
       </c>
@@ -13595,7 +13609,7 @@
         <v>-43992244.699461557</v>
       </c>
     </row>
-    <row r="407" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A407" s="1">
         <v>523</v>
       </c>
@@ -13621,7 +13635,7 @@
         <v>-46138911.413465507</v>
       </c>
     </row>
-    <row r="408" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A408" s="1">
         <v>427</v>
       </c>
@@ -13647,7 +13661,7 @@
         <v>-42562481.470025256</v>
       </c>
     </row>
-    <row r="409" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A409" s="1">
         <v>298</v>
       </c>
@@ -13673,7 +13687,7 @@
         <v>-35856425.415724911</v>
       </c>
     </row>
-    <row r="410" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A410" s="1">
         <v>542</v>
       </c>
@@ -13699,7 +13713,7 @@
         <v>-46753428.344361231</v>
       </c>
     </row>
-    <row r="411" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A411" s="1">
         <v>521</v>
       </c>
@@ -13725,7 +13739,7 @@
         <v>-45979411.933812238</v>
       </c>
     </row>
-    <row r="412" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A412" s="1">
         <v>545</v>
       </c>
@@ -13751,7 +13765,7 @@
         <v>-46989687.47566767</v>
       </c>
     </row>
-    <row r="413" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A413" s="1">
         <v>393</v>
       </c>
@@ -13777,7 +13791,7 @@
         <v>-40987369.532643817</v>
       </c>
     </row>
-    <row r="414" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A414" s="1">
         <v>398</v>
       </c>
@@ -13803,7 +13817,7 @@
         <v>-41083025.785595849</v>
       </c>
     </row>
-    <row r="415" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A415" s="1">
         <v>371</v>
       </c>
@@ -13829,7 +13843,7 @@
         <v>-39930901.945531793</v>
       </c>
     </row>
-    <row r="416" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A416" s="1">
         <v>409</v>
       </c>
@@ -13855,7 +13869,7 @@
         <v>-41781344.051170357</v>
       </c>
     </row>
-    <row r="417" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A417" s="1">
         <v>356</v>
       </c>
@@ -13881,7 +13895,7 @@
         <v>-39124053.607139193</v>
       </c>
     </row>
-    <row r="418" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A418" s="1">
         <v>368</v>
       </c>
@@ -13907,7 +13921,7 @@
         <v>-39837512.091466017</v>
       </c>
     </row>
-    <row r="419" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A419" s="1">
         <v>428</v>
       </c>
@@ -13933,7 +13947,7 @@
         <v>-42592860.363378391</v>
       </c>
     </row>
-    <row r="420" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A420" s="1">
         <v>336</v>
       </c>
@@ -13959,7 +13973,7 @@
         <v>-38035627.846368879</v>
       </c>
     </row>
-    <row r="421" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A421" s="1">
         <v>390</v>
       </c>
@@ -13985,7 +13999,7 @@
         <v>-40909529.630362727</v>
       </c>
     </row>
-    <row r="422" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A422" s="1">
         <v>295</v>
       </c>
@@ -14011,7 +14025,7 @@
         <v>-35780827.374112383</v>
       </c>
     </row>
-    <row r="423" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A423" s="1">
         <v>485</v>
       </c>
@@ -14037,7 +14051,7 @@
         <v>-44780970.016032279</v>
       </c>
     </row>
-    <row r="424" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A424" s="1">
         <v>354</v>
       </c>
@@ -14063,7 +14077,7 @@
         <v>-39070240.961799458</v>
       </c>
     </row>
-    <row r="425" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A425" s="1">
         <v>429</v>
       </c>
@@ -14089,7 +14103,7 @@
         <v>-42617147.510359019</v>
       </c>
     </row>
-    <row r="426" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A426" s="1">
         <v>377</v>
       </c>
@@ -14115,7 +14129,7 @@
         <v>-40046329.950366147</v>
       </c>
     </row>
-    <row r="427" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A427" s="1">
         <v>389</v>
       </c>
@@ -14141,7 +14155,7 @@
         <v>-40893920.26838401</v>
       </c>
     </row>
-    <row r="428" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A428" s="1">
         <v>312</v>
       </c>
@@ -14167,7 +14181,7 @@
         <v>-36861545.684093818</v>
       </c>
     </row>
-    <row r="429" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A429" s="1">
         <v>355</v>
       </c>
@@ -14193,7 +14207,7 @@
         <v>-39096855.531145997</v>
       </c>
     </row>
-    <row r="430" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A430" s="1">
         <v>358</v>
       </c>
@@ -14219,7 +14233,7 @@
         <v>-39164415.474281713</v>
       </c>
     </row>
-    <row r="431" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A431" s="1">
         <v>465</v>
       </c>
@@ -14245,7 +14259,7 @@
         <v>-44041300.817543112</v>
       </c>
     </row>
-    <row r="432" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A432" s="1">
         <v>318</v>
       </c>
@@ -14271,7 +14285,7 @@
         <v>-36994395.824753873</v>
       </c>
     </row>
-    <row r="433" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A433" s="1">
         <v>466</v>
       </c>
@@ -14297,7 +14311,7 @@
         <v>-44078860.279725187</v>
       </c>
     </row>
-    <row r="434" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A434" s="1">
         <v>338</v>
       </c>
@@ -14323,7 +14337,7 @@
         <v>-38077198.555688478</v>
       </c>
     </row>
-    <row r="435" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A435" s="1">
         <v>486</v>
       </c>
@@ -14349,7 +14363,7 @@
         <v>-44823440.033383071</v>
       </c>
     </row>
-    <row r="436" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A436" s="1">
         <v>483</v>
       </c>
@@ -14375,7 +14389,7 @@
         <v>-44635528.936683431</v>
       </c>
     </row>
-    <row r="437" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A437" s="1">
         <v>467</v>
       </c>
@@ -14401,7 +14415,7 @@
         <v>-44131333.609939031</v>
       </c>
     </row>
-    <row r="438" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A438" s="1">
         <v>357</v>
       </c>
@@ -14427,7 +14441,7 @@
         <v>-39147220.506963879</v>
       </c>
     </row>
-    <row r="439" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A439" s="1">
         <v>392</v>
       </c>
@@ -14453,7 +14467,7 @@
         <v>-40963842.716925763</v>
       </c>
     </row>
-    <row r="440" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A440" s="1">
         <v>408</v>
       </c>
@@ -14479,7 +14493,7 @@
         <v>-41769500.020975173</v>
       </c>
     </row>
-    <row r="441" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A441" s="1">
         <v>562</v>
       </c>
@@ -14505,7 +14519,7 @@
         <v>-47504002.633379057</v>
       </c>
     </row>
-    <row r="442" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A442" s="1">
         <v>583</v>
       </c>
@@ -14531,7 +14545,7 @@
         <v>-48254913.525524311</v>
       </c>
     </row>
-    <row r="443" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A443" s="1">
         <v>502</v>
       </c>
@@ -14557,7 +14571,7 @@
         <v>-45290732.921233103</v>
       </c>
     </row>
-    <row r="444" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A444" s="1">
         <v>378</v>
       </c>
@@ -14583,7 +14597,7 @@
         <v>-40074120.060330287</v>
       </c>
     </row>
-    <row r="445" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A445" s="1">
         <v>430</v>
       </c>
@@ -14609,7 +14623,7 @@
         <v>-42631446.413555957</v>
       </c>
     </row>
-    <row r="446" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A446" s="1">
         <v>372</v>
       </c>
@@ -14635,7 +14649,7 @@
         <v>-39951054.041583017</v>
       </c>
     </row>
-    <row r="447" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A447" s="1">
         <v>560</v>
       </c>
@@ -14661,7 +14675,7 @@
         <v>-47303192.010046519</v>
       </c>
     </row>
-    <row r="448" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A448" s="1">
         <v>484</v>
       </c>
@@ -14687,7 +14701,7 @@
         <v>-44705174.565468661</v>
       </c>
     </row>
-    <row r="449" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A449" s="1">
         <v>415</v>
       </c>
@@ -14713,7 +14727,7 @@
         <v>-41845831.562693782</v>
       </c>
     </row>
-    <row r="450" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A450" s="1">
         <v>586</v>
       </c>
@@ -14739,7 +14753,7 @@
         <v>-48402014.172149323</v>
       </c>
     </row>
-    <row r="451" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A451" s="1">
         <v>391</v>
       </c>
@@ -14765,7 +14779,7 @@
         <v>-40935386.964554973</v>
       </c>
     </row>
-    <row r="452" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A452" s="1">
         <v>410</v>
       </c>
@@ -14791,7 +14805,7 @@
         <v>-41795297.321947291</v>
       </c>
     </row>
-    <row r="453" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A453" s="1">
         <v>472</v>
       </c>
@@ -14817,7 +14831,7 @@
         <v>-44232931.612237111</v>
       </c>
     </row>
-    <row r="454" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A454" s="1">
         <v>470</v>
       </c>
@@ -14843,7 +14857,7 @@
         <v>-44195268.599925153</v>
       </c>
     </row>
-    <row r="455" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A455" s="1">
         <v>565</v>
       </c>
@@ -14869,7 +14883,7 @@
         <v>-47708893.225348853</v>
       </c>
     </row>
-    <row r="456" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A456" s="1">
         <v>563</v>
       </c>
@@ -14895,7 +14909,7 @@
         <v>-47582064.862385198</v>
       </c>
     </row>
-    <row r="457" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A457" s="1">
         <v>527</v>
       </c>
@@ -14921,7 +14935,7 @@
         <v>-46358356.916566081</v>
       </c>
     </row>
-    <row r="458" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A458" s="1">
         <v>373</v>
       </c>
@@ -14947,7 +14961,7 @@
         <v>-39966796.720178142</v>
       </c>
     </row>
-    <row r="459" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A459" s="1">
         <v>397</v>
       </c>
@@ -14973,7 +14987,7 @@
         <v>-41062891.47610604</v>
       </c>
     </row>
-    <row r="460" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A460" s="1">
         <v>524</v>
       </c>
@@ -14999,7 +15013,7 @@
         <v>-46217893.684255712</v>
       </c>
     </row>
-    <row r="461" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A461" s="1">
         <v>469</v>
       </c>
@@ -15025,7 +15039,7 @@
         <v>-44170285.264549568</v>
       </c>
     </row>
-    <row r="462" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A462" s="1">
         <v>561</v>
       </c>
@@ -15051,7 +15065,7 @@
         <v>-47401210.719015837</v>
       </c>
     </row>
-    <row r="463" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A463" s="1">
         <v>374</v>
       </c>
@@ -15077,7 +15091,7 @@
         <v>-39990457.757025957</v>
       </c>
     </row>
-    <row r="464" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A464" s="1">
         <v>394</v>
       </c>
@@ -15103,7 +15117,7 @@
         <v>-41007838.243107587</v>
       </c>
     </row>
-    <row r="465" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A465" s="1">
         <v>541</v>
       </c>
@@ -15129,7 +15143,7 @@
         <v>-46656193.517265253</v>
       </c>
     </row>
-    <row r="466" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A466" s="1">
         <v>522</v>
       </c>
@@ -15155,7 +15169,7 @@
         <v>-46062343.584062234</v>
       </c>
     </row>
-    <row r="467" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A467" s="1">
         <v>543</v>
       </c>
@@ -15181,7 +15195,7 @@
         <v>-46828748.471548423</v>
       </c>
     </row>
-    <row r="468" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A468" s="1">
         <v>449</v>
       </c>
@@ -15207,7 +15221,7 @@
         <v>-43472368.207814857</v>
       </c>
     </row>
-    <row r="469" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A469" s="1">
         <v>580</v>
       </c>
@@ -15233,7 +15247,7 @@
         <v>-47963932.637232877</v>
       </c>
     </row>
-    <row r="470" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A470" s="1">
         <v>448</v>
       </c>
@@ -15259,7 +15273,7 @@
         <v>-43452617.220247217</v>
       </c>
     </row>
-    <row r="471" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A471" s="1">
         <v>505</v>
       </c>
@@ -15285,7 +15299,7 @@
         <v>-45540761.610071018</v>
       </c>
     </row>
-    <row r="472" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A472" s="1">
         <v>450</v>
       </c>
@@ -15311,7 +15325,7 @@
         <v>-43485279.190200657</v>
       </c>
     </row>
-    <row r="473" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A473" s="1">
         <v>434</v>
       </c>
@@ -15337,7 +15351,7 @@
         <v>-42669155.59700162</v>
       </c>
     </row>
-    <row r="474" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A474" s="1">
         <v>581</v>
       </c>
@@ -15363,7 +15377,7 @@
         <v>-48065571.121432602</v>
       </c>
     </row>
-    <row r="475" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A475" s="1">
         <v>602</v>
       </c>
@@ -15389,7 +15403,7 @@
         <v>-48855232.608014859</v>
       </c>
     </row>
-    <row r="476" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A476" s="1">
         <v>525</v>
       </c>
@@ -15415,7 +15429,7 @@
         <v>-46264933.349535741</v>
       </c>
     </row>
-    <row r="477" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A477" s="1">
         <v>359</v>
       </c>
@@ -15441,7 +15455,7 @@
         <v>-39180551.205938421</v>
       </c>
     </row>
-    <row r="478" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A478" s="1">
         <v>546</v>
       </c>
@@ -15467,7 +15481,7 @@
         <v>-47048912.289620213</v>
       </c>
     </row>
-    <row r="479" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A479" s="1">
         <v>508</v>
       </c>
@@ -15493,7 +15507,7 @@
         <v>-45653371.741418682</v>
       </c>
     </row>
-    <row r="480" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A480" s="1">
         <v>395</v>
       </c>
@@ -15519,7 +15533,7 @@
         <v>-41032234.793674164</v>
       </c>
     </row>
-    <row r="481" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A481" s="1">
         <v>491</v>
       </c>
@@ -15545,7 +15559,7 @@
         <v>-44914185.064803898</v>
       </c>
     </row>
-    <row r="482" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A482" s="1">
         <v>529</v>
       </c>
@@ -15571,7 +15585,7 @@
         <v>-46452645.113974936</v>
       </c>
     </row>
-    <row r="483" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A483" s="1">
         <v>451</v>
       </c>
@@ -15597,7 +15611,7 @@
         <v>-43501698.833546899</v>
       </c>
     </row>
-    <row r="484" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A484" s="1">
         <v>566</v>
       </c>
@@ -15623,7 +15637,7 @@
         <v>-47755712.332710743</v>
       </c>
     </row>
-    <row r="485" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A485" s="1">
         <v>432</v>
       </c>
@@ -15649,7 +15663,7 @@
         <v>-42649037.609493867</v>
       </c>
     </row>
-    <row r="486" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A486" s="1">
         <v>601</v>
       </c>
@@ -15675,7 +15689,7 @@
         <v>-48746575.170019947</v>
       </c>
     </row>
-    <row r="487" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A487" s="1">
         <v>399</v>
       </c>
@@ -15701,7 +15715,7 @@
         <v>-41097818.452557668</v>
       </c>
     </row>
-    <row r="488" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A488" s="1">
         <v>468</v>
       </c>
@@ -15727,7 +15741,7 @@
         <v>-44153932.036222629</v>
       </c>
     </row>
-    <row r="489" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A489" s="1">
         <v>607</v>
       </c>
@@ -15753,7 +15767,7 @@
         <v>-49142074.977766767</v>
       </c>
     </row>
-    <row r="490" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A490" s="1">
         <v>582</v>
       </c>
@@ -15779,7 +15793,7 @@
         <v>-48182594.54602126</v>
       </c>
     </row>
-    <row r="491" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A491" s="1">
         <v>396</v>
       </c>
@@ -15805,7 +15819,7 @@
         <v>-41048823.679527</v>
       </c>
     </row>
-    <row r="492" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A492" s="1">
         <v>510</v>
       </c>
@@ -15831,7 +15845,7 @@
         <v>-45688875.77389051</v>
       </c>
     </row>
-    <row r="493" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A493" s="1">
         <v>431</v>
       </c>
@@ -15857,7 +15871,7 @@
         <v>-42637696.616042301</v>
       </c>
     </row>
-    <row r="494" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A494" s="1">
         <v>528</v>
       </c>
@@ -15883,7 +15897,7 @@
         <v>-46408940.037731484</v>
       </c>
     </row>
-    <row r="495" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A495" s="1">
         <v>540</v>
       </c>
@@ -15909,7 +15923,7 @@
         <v>-46557124.425831638</v>
       </c>
     </row>
-    <row r="496" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A496" s="1">
         <v>604</v>
       </c>
@@ -15935,7 +15949,7 @@
         <v>-49008783.104230389</v>
       </c>
     </row>
-    <row r="497" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A497" s="1">
         <v>526</v>
       </c>
@@ -15961,7 +15975,7 @@
         <v>-46309930.436126322</v>
       </c>
     </row>
-    <row r="498" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A498" s="1">
         <v>455</v>
       </c>
@@ -15987,7 +16001,7 @@
         <v>-43524942.017790988</v>
       </c>
     </row>
-    <row r="499" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A499" s="1">
         <v>379</v>
       </c>
@@ -16013,7 +16027,7 @@
         <v>-40089670.224768549</v>
       </c>
     </row>
-    <row r="500" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A500" s="1">
         <v>622</v>
       </c>
@@ -16039,7 +16053,7 @@
         <v>-49565016.25768435</v>
       </c>
     </row>
-    <row r="501" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A501" s="1">
         <v>564</v>
       </c>
@@ -16065,7 +16079,7 @@
         <v>-47637925.177435137</v>
       </c>
     </row>
-    <row r="502" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A502" s="1">
         <v>413</v>
       </c>
@@ -16091,7 +16105,7 @@
         <v>-41823318.406314991</v>
       </c>
     </row>
-    <row r="503" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A503" s="1">
         <v>603</v>
       </c>
@@ -16117,7 +16131,7 @@
         <v>-48939075.113179252</v>
       </c>
     </row>
-    <row r="504" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A504" s="1">
         <v>625</v>
       </c>
@@ -16143,7 +16157,7 @@
         <v>-49714836.15470539</v>
       </c>
     </row>
-    <row r="505" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A505" s="1">
         <v>492</v>
       </c>
@@ -16169,7 +16183,7 @@
         <v>-44931282.119303353</v>
       </c>
     </row>
-    <row r="506" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A506" s="1">
         <v>641</v>
       </c>
@@ -16195,7 +16209,7 @@
         <v>-50081469.649992406</v>
       </c>
     </row>
-    <row r="507" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A507" s="1">
         <v>490</v>
       </c>
@@ -16221,7 +16235,7 @@
         <v>-44898055.555985712</v>
       </c>
     </row>
-    <row r="508" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A508" s="1">
         <v>375</v>
       </c>
@@ -16247,7 +16261,7 @@
         <v>-40003720.768991917</v>
       </c>
     </row>
-    <row r="509" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A509" s="1">
         <v>646</v>
       </c>
@@ -16273,7 +16287,7 @@
         <v>-50395521.077660933</v>
       </c>
     </row>
-    <row r="510" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A510" s="1">
         <v>488</v>
       </c>
@@ -16299,7 +16313,7 @@
         <v>-44870653.453477688</v>
       </c>
     </row>
-    <row r="511" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A511" s="1">
         <v>620</v>
       </c>
@@ -16325,7 +16339,7 @@
         <v>-49361873.159580953</v>
       </c>
     </row>
-    <row r="512" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A512" s="1">
         <v>507</v>
       </c>
@@ -16351,7 +16365,7 @@
         <v>-45618022.295040391</v>
       </c>
     </row>
-    <row r="513" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A513" s="1">
         <v>608</v>
       </c>
@@ -16377,7 +16391,7 @@
         <v>-49206379.631139949</v>
       </c>
     </row>
-    <row r="514" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A514" s="1">
         <v>471</v>
       </c>
@@ -16403,7 +16417,7 @@
         <v>-44213724.681983933</v>
       </c>
     </row>
-    <row r="515" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A515" s="1">
         <v>569</v>
       </c>
@@ -16429,7 +16443,7 @@
         <v>-47836901.965804033</v>
       </c>
     </row>
-    <row r="516" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A516" s="1">
         <v>473</v>
       </c>
@@ -16455,7 +16469,7 @@
         <v>-44253021.846397147</v>
       </c>
     </row>
-    <row r="517" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A517" s="1">
         <v>643</v>
       </c>
@@ -16481,7 +16495,7 @@
         <v>-50254361.58855062</v>
       </c>
     </row>
-    <row r="518" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A518" s="1">
         <v>454</v>
       </c>
@@ -16507,7 +16521,7 @@
         <v>-43515844.631125167</v>
       </c>
     </row>
-    <row r="519" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A519" s="1">
         <v>506</v>
       </c>
@@ -16533,7 +16547,7 @@
         <v>-45588968.838183142</v>
       </c>
     </row>
-    <row r="520" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A520" s="1">
         <v>664</v>
       </c>
@@ -16559,7 +16573,7 @@
         <v>-50914553.525421053</v>
       </c>
     </row>
-    <row r="521" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A521" s="1">
         <v>412</v>
       </c>
@@ -16585,7 +16599,7 @@
         <v>-41812048.074861944</v>
       </c>
     </row>
-    <row r="522" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A522" s="1">
         <v>411</v>
       </c>
@@ -16611,7 +16625,7 @@
         <v>-41806035.683379002</v>
       </c>
     </row>
-    <row r="523" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A523" s="1">
         <v>584</v>
       </c>
@@ -16637,7 +16651,7 @@
         <v>-48312340.038746737</v>
       </c>
     </row>
-    <row r="524" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A524" s="1">
         <v>416</v>
       </c>
@@ -16663,7 +16677,7 @@
         <v>-41858142.769282714</v>
       </c>
     </row>
-    <row r="525" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A525" s="1">
         <v>489</v>
       </c>
@@ -16689,7 +16703,7 @@
         <v>-44888444.548903182</v>
       </c>
     </row>
-    <row r="526" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A526" s="1">
         <v>551</v>
       </c>
@@ -16715,7 +16729,7 @@
         <v>-47161289.115235686</v>
       </c>
     </row>
-    <row r="527" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A527" s="1">
         <v>585</v>
       </c>
@@ -16741,7 +16755,7 @@
         <v>-48346821.370600499</v>
       </c>
     </row>
-    <row r="528" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A528" s="1">
         <v>417</v>
       </c>
@@ -16767,7 +16781,7 @@
         <v>-41866592.552086428</v>
       </c>
     </row>
-    <row r="529" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A529" s="1">
         <v>550</v>
       </c>
@@ -16793,7 +16807,7 @@
         <v>-47134852.187201247</v>
       </c>
     </row>
-    <row r="530" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A530" s="1">
         <v>414</v>
       </c>
@@ -16819,7 +16833,7 @@
         <v>-41834170.783658117</v>
       </c>
     </row>
-    <row r="531" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A531" s="1">
         <v>642</v>
       </c>
@@ -16845,7 +16859,7 @@
         <v>-50181511.507774577</v>
       </c>
     </row>
-    <row r="532" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A532" s="1">
         <v>567</v>
       </c>
@@ -16871,7 +16885,7 @@
         <v>-47794874.832860567</v>
       </c>
     </row>
-    <row r="533" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A533" s="1">
         <v>418</v>
       </c>
@@ -16897,7 +16911,7 @@
         <v>-41871647.171223059</v>
       </c>
     </row>
-    <row r="534" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A534" s="1">
         <v>458</v>
       </c>
@@ -16923,7 +16937,7 @@
         <v>-43549924.888644323</v>
       </c>
     </row>
-    <row r="535" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A535" s="1">
         <v>433</v>
       </c>
@@ -16949,7 +16963,7 @@
         <v>-42663657.226662703</v>
       </c>
     </row>
-    <row r="536" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A536" s="1">
         <v>475</v>
       </c>
@@ -16975,7 +16989,7 @@
         <v>-44273272.87769074</v>
       </c>
     </row>
-    <row r="537" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A537" s="1">
         <v>600</v>
       </c>
@@ -17001,7 +17015,7 @@
         <v>-48664477.501052856</v>
       </c>
     </row>
-    <row r="538" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A538" s="1">
         <v>662</v>
       </c>
@@ -17027,7 +17041,7 @@
         <v>-50724424.788086116</v>
       </c>
     </row>
-    <row r="539" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A539" s="1">
         <v>663</v>
       </c>
@@ -17053,7 +17067,7 @@
         <v>-50817239.260644071</v>
       </c>
     </row>
-    <row r="540" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A540" s="1">
         <v>487</v>
       </c>
@@ -17079,7 +17093,7 @@
         <v>-44854979.802888721</v>
       </c>
     </row>
-    <row r="541" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A541" s="1">
         <v>624</v>
       </c>
@@ -17105,7 +17119,7 @@
         <v>-49657390.826893911</v>
       </c>
     </row>
-    <row r="542" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A542" s="1">
         <v>453</v>
       </c>
@@ -17131,7 +17145,7 @@
         <v>-43506986.996033616</v>
       </c>
     </row>
-    <row r="543" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A543" s="1">
         <v>589</v>
       </c>
@@ -17157,7 +17171,7 @@
         <v>-48513136.059948057</v>
       </c>
     </row>
-    <row r="544" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A544" s="1">
         <v>493</v>
       </c>
@@ -17183,7 +17197,7 @@
         <v>-44951478.948586181</v>
       </c>
     </row>
-    <row r="545" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A545" s="1">
         <v>644</v>
       </c>
@@ -17209,7 +17223,7 @@
         <v>-50306699.751169473</v>
       </c>
     </row>
-    <row r="546" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A546" s="1">
         <v>547</v>
       </c>
@@ -17235,7 +17249,7 @@
         <v>-47076970.603570417</v>
       </c>
     </row>
-    <row r="547" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A547" s="1">
         <v>474</v>
       </c>
@@ -17261,7 +17275,7 @@
         <v>-44264601.144417264</v>
       </c>
     </row>
-    <row r="548" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A548" s="1">
         <v>621</v>
       </c>
@@ -17287,7 +17301,7 @@
         <v>-49460569.427736923</v>
       </c>
     </row>
-    <row r="549" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A549" s="1">
         <v>511</v>
       </c>
@@ -17313,7 +17327,7 @@
         <v>-45699540.941167086</v>
       </c>
     </row>
-    <row r="550" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A550" s="1">
         <v>519</v>
       </c>
@@ -17339,7 +17353,7 @@
         <v>-45781546.755050957</v>
       </c>
     </row>
-    <row r="551" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A551" s="1">
         <v>640</v>
       </c>
@@ -17365,7 +17379,7 @@
         <v>-49977644.009853192</v>
       </c>
     </row>
-    <row r="552" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A552" s="1">
         <v>439</v>
       </c>
@@ -17391,7 +17405,7 @@
         <v>-42702948.338967189</v>
       </c>
     </row>
-    <row r="553" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A553" s="1">
         <v>530</v>
       </c>
@@ -17417,7 +17431,7 @@
         <v>-46478009.476284817</v>
       </c>
     </row>
-    <row r="554" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A554" s="1">
         <v>680</v>
       </c>
@@ -17443,7 +17457,7 @@
         <v>-51237468.375262417</v>
       </c>
     </row>
-    <row r="555" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A555" s="1">
         <v>452</v>
       </c>
@@ -17469,7 +17483,7 @@
         <v>-43506243.31519521</v>
       </c>
     </row>
-    <row r="556" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A556" s="1">
         <v>627</v>
       </c>
@@ -17495,7 +17509,7 @@
         <v>-49806509.647021577</v>
       </c>
     </row>
-    <row r="557" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A557" s="1">
         <v>419</v>
       </c>
@@ -17521,7 +17535,7 @@
         <v>-41877735.045123957</v>
       </c>
     </row>
-    <row r="558" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A558" s="1">
         <v>532</v>
       </c>
@@ -17547,7 +17561,7 @@
         <v>-46488526.465467557</v>
       </c>
     </row>
-    <row r="559" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A559" s="1">
         <v>686</v>
       </c>
@@ -17573,7 +17587,7 @@
         <v>-51597512.878033377</v>
       </c>
     </row>
-    <row r="560" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A560" s="1">
         <v>588</v>
       </c>
@@ -17599,7 +17613,7 @@
         <v>-48487090.842411287</v>
       </c>
     </row>
-    <row r="561" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A561" s="1">
         <v>514</v>
       </c>
@@ -17625,7 +17639,7 @@
         <v>-45741301.64164754</v>
       </c>
     </row>
-    <row r="562" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A562" s="1">
         <v>626</v>
       </c>
@@ -17651,7 +17665,7 @@
         <v>-49763207.443422921</v>
       </c>
     </row>
-    <row r="563" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A563" s="1">
         <v>661</v>
       </c>
@@ -17677,7 +17691,7 @@
         <v>-50633714.090341873</v>
       </c>
     </row>
-    <row r="564" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A564" s="1">
         <v>436</v>
       </c>
@@ -17703,7 +17717,7 @@
         <v>-42681464.1926696</v>
       </c>
     </row>
-    <row r="565" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A565" s="1">
         <v>496</v>
       </c>
@@ -17729,7 +17743,7 @@
         <v>-44971973.837938681</v>
       </c>
     </row>
-    <row r="566" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A566" s="1">
         <v>623</v>
       </c>
@@ -17755,7 +17769,7 @@
         <v>-49615229.196911938</v>
       </c>
     </row>
-    <row r="567" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A567" s="1">
         <v>477</v>
       </c>
@@ -17781,7 +17795,7 @@
         <v>-44277297.309513099</v>
       </c>
     </row>
-    <row r="568" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A568" s="1">
         <v>605</v>
       </c>
@@ -17807,7 +17821,7 @@
         <v>-49063133.409975603</v>
       </c>
     </row>
-    <row r="569" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A569" s="1">
         <v>549</v>
       </c>
@@ -17833,7 +17847,7 @@
         <v>-47112228.92824661</v>
       </c>
     </row>
-    <row r="570" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A570" s="1">
         <v>587</v>
       </c>
@@ -17859,7 +17873,7 @@
         <v>-48457320.171896987</v>
       </c>
     </row>
-    <row r="571" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A571" s="1">
         <v>548</v>
       </c>
@@ -17885,7 +17899,7 @@
         <v>-47092354.103272863</v>
       </c>
     </row>
-    <row r="572" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A572" s="1">
         <v>435</v>
       </c>
@@ -17911,7 +17925,7 @@
         <v>-42673374.683906697</v>
       </c>
     </row>
-    <row r="573" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A573" s="1">
         <v>666</v>
       </c>
@@ -17937,7 +17951,7 @@
         <v>-51010290.737141557</v>
       </c>
     </row>
-    <row r="574" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A574" s="1">
         <v>437</v>
       </c>
@@ -17963,7 +17977,7 @@
         <v>-42682402.759390064</v>
       </c>
     </row>
-    <row r="575" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A575" s="1">
         <v>645</v>
       </c>
@@ -17989,7 +18003,7 @@
         <v>-50340402.583597757</v>
       </c>
     </row>
-    <row r="576" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A576" s="1">
         <v>457</v>
       </c>
@@ -18015,7 +18029,7 @@
         <v>-43544142.815810017</v>
       </c>
     </row>
-    <row r="577" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A577" s="1">
         <v>512</v>
       </c>
@@ -18041,7 +18055,7 @@
         <v>-45718923.733318053</v>
       </c>
     </row>
-    <row r="578" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A578" s="1">
         <v>438</v>
       </c>
@@ -18067,7 +18081,7 @@
         <v>-42695357.426497623</v>
       </c>
     </row>
-    <row r="579" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A579" s="1">
         <v>684</v>
       </c>
@@ -18093,7 +18107,7 @@
         <v>-51509590.473375984</v>
       </c>
     </row>
-    <row r="580" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A580" s="1">
         <v>571</v>
       </c>
@@ -18119,7 +18133,7 @@
         <v>-47871679.655053057</v>
       </c>
     </row>
-    <row r="581" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A581" s="1">
         <v>476</v>
       </c>
@@ -18145,7 +18159,7 @@
         <v>-44276599.09408614</v>
       </c>
     </row>
-    <row r="582" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A582" s="1">
         <v>572</v>
       </c>
@@ -18171,7 +18185,7 @@
         <v>-47903087.327564403</v>
       </c>
     </row>
-    <row r="583" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A583" s="1">
         <v>687</v>
       </c>
@@ -18197,7 +18211,7 @@
         <v>-51626283.185620487</v>
       </c>
     </row>
-    <row r="584" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A584" s="1">
         <v>509</v>
       </c>
@@ -18223,7 +18237,7 @@
         <v>-45680078.729489259</v>
       </c>
     </row>
-    <row r="585" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A585" s="1">
         <v>513</v>
       </c>
@@ -18249,7 +18263,7 @@
         <v>-45728699.725811608</v>
       </c>
     </row>
-    <row r="586" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A586" s="1">
         <v>668</v>
       </c>
@@ -18275,7 +18289,7 @@
         <v>-51053809.151519991</v>
       </c>
     </row>
-    <row r="587" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A587" s="1">
         <v>665</v>
       </c>
@@ -18301,7 +18315,7 @@
         <v>-50966805.302642107</v>
       </c>
     </row>
-    <row r="588" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A588" s="1">
         <v>495</v>
       </c>
@@ -18327,7 +18341,7 @@
         <v>-44966237.229658842</v>
       </c>
     </row>
-    <row r="589" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A589" s="1">
         <v>533</v>
       </c>
@@ -18353,7 +18367,7 @@
         <v>-46490852.141149849</v>
       </c>
     </row>
-    <row r="590" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A590" s="1">
         <v>570</v>
       </c>
@@ -18379,7 +18393,7 @@
         <v>-47859667.704298273</v>
       </c>
     </row>
-    <row r="591" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A591" s="1">
         <v>740</v>
       </c>
@@ -18405,7 +18419,7 @@
         <v>-52960946.943312347</v>
       </c>
     </row>
-    <row r="592" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A592" s="1">
         <v>660</v>
       </c>
@@ -18431,7 +18445,7 @@
         <v>-50564790.942506596</v>
       </c>
     </row>
-    <row r="593" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A593" s="1">
         <v>515</v>
       </c>
@@ -18457,7 +18471,7 @@
         <v>-45751600.915236793</v>
       </c>
     </row>
-    <row r="594" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A594" s="1">
         <v>703</v>
       </c>
@@ -18483,7 +18497,7 @@
         <v>-52063433.392590187</v>
       </c>
     </row>
-    <row r="595" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A595" s="1">
         <v>667</v>
       </c>
@@ -18509,7 +18523,7 @@
         <v>-51037295.017461181</v>
       </c>
     </row>
-    <row r="596" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A596" s="1">
         <v>702</v>
       </c>
@@ -18535,7 +18549,7 @@
         <v>-51982815.289779663</v>
       </c>
     </row>
-    <row r="597" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A597" s="1">
         <v>704</v>
       </c>
@@ -18561,7 +18575,7 @@
         <v>-52136561.366830014</v>
       </c>
     </row>
-    <row r="598" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A598" s="1">
         <v>456</v>
       </c>
@@ -18587,7 +18601,7 @@
         <v>-43527218.674560808</v>
       </c>
     </row>
-    <row r="599" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A599" s="1">
         <v>727</v>
       </c>
@@ -18613,7 +18627,7 @@
         <v>-52735571.823468082</v>
       </c>
     </row>
-    <row r="600" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A600" s="1">
         <v>552</v>
       </c>
@@ -18639,7 +18653,7 @@
         <v>-47172106.538846061</v>
       </c>
     </row>
-    <row r="601" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A601" s="1">
         <v>741</v>
       </c>
@@ -18665,7 +18679,7 @@
         <v>-53080122.679200061</v>
       </c>
     </row>
-    <row r="602" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A602" s="1">
         <v>725</v>
       </c>
@@ -18691,7 +18705,7 @@
         <v>-52661904.905405924</v>
       </c>
     </row>
-    <row r="603" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A603" s="1">
         <v>554</v>
       </c>
@@ -18717,7 +18731,7 @@
         <v>-47193420.24873089</v>
       </c>
     </row>
-    <row r="604" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A604" s="1">
         <v>478</v>
       </c>
@@ -18743,7 +18757,7 @@
         <v>-44277297.309513099</v>
       </c>
     </row>
-    <row r="605" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A605" s="1">
         <v>683</v>
       </c>
@@ -18769,7 +18783,7 @@
         <v>-51445588.624085657</v>
       </c>
     </row>
-    <row r="606" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A606" s="1">
         <v>592</v>
       </c>
@@ -18795,7 +18809,7 @@
         <v>-48560241.785780467</v>
       </c>
     </row>
-    <row r="607" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A607" s="1">
         <v>591</v>
       </c>
@@ -18821,7 +18835,7 @@
         <v>-48546443.921073817</v>
       </c>
     </row>
-    <row r="608" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A608" s="1">
         <v>553</v>
       </c>
@@ -18847,7 +18861,7 @@
         <v>-47178626.996606551</v>
       </c>
     </row>
-    <row r="609" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A609" s="1">
         <v>649</v>
       </c>
@@ -18873,7 +18887,7 @@
         <v>-50477826.970018677</v>
       </c>
     </row>
-    <row r="610" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A610" s="1">
         <v>459</v>
       </c>
@@ -18899,7 +18913,7 @@
         <v>-43556092.208283618</v>
       </c>
     </row>
-    <row r="611" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A611" s="1">
         <v>701</v>
       </c>
@@ -18925,7 +18939,7 @@
         <v>-51876621.7217196</v>
       </c>
     </row>
-    <row r="612" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A612" s="1">
         <v>531</v>
       </c>
@@ -18951,7 +18965,7 @@
         <v>-46485266.767622553</v>
       </c>
     </row>
-    <row r="613" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A613" s="1">
         <v>568</v>
       </c>
@@ -18977,7 +18991,7 @@
         <v>-47814226.551197313</v>
       </c>
     </row>
-    <row r="614" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A614" s="1">
         <v>498</v>
       </c>
@@ -19003,7 +19017,7 @@
         <v>-44975346.563841097</v>
       </c>
     </row>
-    <row r="615" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A615" s="1">
         <v>728</v>
       </c>
@@ -19029,7 +19043,7 @@
         <v>-52760434.343751729</v>
       </c>
     </row>
-    <row r="616" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A616" s="1">
         <v>612</v>
       </c>
@@ -19055,7 +19069,7 @@
         <v>-49263234.389553443</v>
       </c>
     </row>
-    <row r="617" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A617" s="1">
         <v>700</v>
       </c>
@@ -19081,7 +19095,7 @@
         <v>-51787121.50206928</v>
       </c>
     </row>
-    <row r="618" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A618" s="1">
         <v>479</v>
       </c>
@@ -19107,7 +19121,7 @@
         <v>-44279830.299101293</v>
       </c>
     </row>
-    <row r="619" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A619" s="1">
         <v>497</v>
       </c>
@@ -19133,7 +19147,7 @@
         <v>-44975346.563841097</v>
       </c>
     </row>
-    <row r="620" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A620" s="1">
         <v>688</v>
       </c>
@@ -19159,7 +19173,7 @@
         <v>-51657213.017354317</v>
       </c>
     </row>
-    <row r="621" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A621" s="1">
         <v>614</v>
       </c>
@@ -19185,7 +19199,7 @@
         <v>-49280160.601482093</v>
       </c>
     </row>
-    <row r="622" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A622" s="1">
         <v>606</v>
       </c>
@@ -19211,7 +19225,7 @@
         <v>-49096219.442358583</v>
       </c>
     </row>
-    <row r="623" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A623" s="1">
         <v>723</v>
       </c>
@@ -19237,7 +19251,7 @@
         <v>-52556238.942971073</v>
       </c>
     </row>
-    <row r="624" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A624" s="1">
         <v>760</v>
       </c>
@@ -19263,7 +19277,7 @@
         <v>-53540759.861962274</v>
       </c>
     </row>
-    <row r="625" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A625" s="1">
         <v>726</v>
       </c>
@@ -19289,7 +19303,7 @@
         <v>-52705863.688371271</v>
       </c>
     </row>
-    <row r="626" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A626" s="1">
         <v>720</v>
       </c>
@@ -19315,7 +19329,7 @@
         <v>-52367374.980710648</v>
       </c>
     </row>
-    <row r="627" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A627" s="1">
         <v>652</v>
       </c>
@@ -19341,7 +19355,7 @@
         <v>-50513920.634406611</v>
       </c>
     </row>
-    <row r="628" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A628" s="1">
         <v>517</v>
       </c>
@@ -19367,7 +19381,7 @@
         <v>-45757958.180055507</v>
       </c>
     </row>
-    <row r="629" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A629" s="1">
         <v>535</v>
       </c>
@@ -19393,7 +19407,7 @@
         <v>-46501054.957593657</v>
       </c>
     </row>
-    <row r="630" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A630" s="1">
         <v>682</v>
       </c>
@@ -19419,7 +19433,7 @@
         <v>-51404205.984011292</v>
       </c>
     </row>
-    <row r="631" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A631" s="1">
         <v>681</v>
       </c>
@@ -19445,7 +19459,7 @@
         <v>-51326208.91270645</v>
       </c>
     </row>
-    <row r="632" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A632" s="1">
         <v>573</v>
       </c>
@@ -19471,7 +19485,7 @@
         <v>-47906180.29774335</v>
       </c>
     </row>
-    <row r="633" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A633" s="1">
         <v>674</v>
       </c>
@@ -19497,7 +19511,7 @@
         <v>-51155438.794032842</v>
       </c>
     </row>
-    <row r="634" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A634" s="1">
         <v>534</v>
       </c>
@@ -19523,7 +19537,7 @@
         <v>-46498360.437587664</v>
       </c>
     </row>
-    <row r="635" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A635" s="1">
         <v>609</v>
       </c>
@@ -19549,7 +19563,7 @@
         <v>-49227805.764884561</v>
       </c>
     </row>
-    <row r="636" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A636" s="1">
         <v>711</v>
       </c>
@@ -19575,7 +19589,7 @@
         <v>-52274272.398727097</v>
       </c>
     </row>
-    <row r="637" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A637" s="1">
         <v>685</v>
       </c>
@@ -19601,7 +19615,7 @@
         <v>-51553830.157767318</v>
       </c>
     </row>
-    <row r="638" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A638" s="1">
         <v>780</v>
       </c>
@@ -19627,7 +19641,7 @@
         <v>-54098648.336344227</v>
       </c>
     </row>
-    <row r="639" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A639" s="1">
         <v>707</v>
       </c>
@@ -19653,7 +19667,7 @@
         <v>-52213986.113040254</v>
       </c>
     </row>
-    <row r="640" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A640" s="1">
         <v>518</v>
       </c>
@@ -19679,7 +19693,7 @@
         <v>-45769292.928309932</v>
       </c>
     </row>
-    <row r="641" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A641" s="1">
         <v>746</v>
       </c>
@@ -19705,7 +19719,7 @@
         <v>-53346854.824860789</v>
       </c>
     </row>
-    <row r="642" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A642" s="1">
         <v>748</v>
       </c>
@@ -19731,7 +19745,7 @@
         <v>-53389768.511704423</v>
       </c>
     </row>
-    <row r="643" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A643" s="1">
         <v>708</v>
       </c>
@@ -19757,7 +19771,7 @@
         <v>-52232705.073559143</v>
       </c>
     </row>
-    <row r="644" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A644" s="1">
         <v>575</v>
       </c>
@@ -19783,7 +19797,7 @@
         <v>-47908154.195347257</v>
       </c>
     </row>
-    <row r="645" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A645" s="1">
         <v>536</v>
       </c>
@@ -19809,7 +19823,7 @@
         <v>-46502192.788338743</v>
       </c>
     </row>
-    <row r="646" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A646" s="1">
         <v>742</v>
       </c>
@@ -19835,7 +19849,7 @@
         <v>-53159130.842971511</v>
       </c>
     </row>
-    <row r="647" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A647" s="1">
         <v>590</v>
       </c>
@@ -19861,7 +19875,7 @@
         <v>-48533279.960712023</v>
       </c>
     </row>
-    <row r="648" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A648" s="1">
         <v>782</v>
       </c>
@@ -19887,7 +19901,7 @@
         <v>-54278910.481493004</v>
       </c>
     </row>
-    <row r="649" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A649" s="1">
         <v>689</v>
       </c>
@@ -19913,7 +19927,7 @@
         <v>-51675009.556226037</v>
       </c>
     </row>
-    <row r="650" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A650" s="1">
         <v>516</v>
       </c>
@@ -19939,7 +19953,7 @@
         <v>-45754641.891820982</v>
       </c>
     </row>
-    <row r="651" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A651" s="1">
         <v>611</v>
       </c>
@@ -19965,7 +19979,7 @@
         <v>-49253159.664370507</v>
       </c>
     </row>
-    <row r="652" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A652" s="1">
         <v>537</v>
       </c>
@@ -19991,7 +20005,7 @@
         <v>-46502872.350926511</v>
       </c>
     </row>
-    <row r="653" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A653" s="1">
         <v>576</v>
       </c>
@@ -20017,7 +20031,7 @@
         <v>-47913394.225765593</v>
       </c>
     </row>
-    <row r="654" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A654" s="1">
         <v>781</v>
       </c>
@@ -20043,7 +20057,7 @@
         <v>-54204340.784723483</v>
       </c>
     </row>
-    <row r="655" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A655" s="1">
         <v>648</v>
       </c>
@@ -20069,7 +20083,7 @@
         <v>-50459331.290483177</v>
       </c>
     </row>
-    <row r="656" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A656" s="1">
         <v>636</v>
       </c>
@@ -20095,7 +20109,7 @@
         <v>-49910530.633810997</v>
       </c>
     </row>
-    <row r="657" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A657" s="1">
         <v>647</v>
       </c>
@@ -20121,7 +20135,7 @@
         <v>-50432954.909133978</v>
       </c>
     </row>
-    <row r="658" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A658" s="1">
         <v>767</v>
       </c>
@@ -20147,7 +20161,7 @@
         <v>-53936570.261070646</v>
       </c>
     </row>
-    <row r="659" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A659" s="1">
         <v>745</v>
       </c>
@@ -20173,7 +20187,7 @@
         <v>-53316784.902624078</v>
       </c>
     </row>
-    <row r="660" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A660" s="1">
         <v>724</v>
       </c>
@@ -20199,7 +20213,7 @@
         <v>-52600584.381165013</v>
       </c>
     </row>
-    <row r="661" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A661" s="1">
         <v>671</v>
       </c>
@@ -20225,7 +20239,7 @@
         <v>-51111455.060738191</v>
       </c>
     </row>
-    <row r="662" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A662" s="1">
         <v>574</v>
       </c>
@@ -20251,7 +20265,7 @@
         <v>-47907128.254972927</v>
       </c>
     </row>
-    <row r="663" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A663" s="1">
         <v>722</v>
       </c>
@@ -20277,7 +20291,7 @@
         <v>-52497820.446228333</v>
       </c>
     </row>
-    <row r="664" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A664" s="1">
         <v>761</v>
       </c>
@@ -20303,7 +20317,7 @@
         <v>-53649145.373783298</v>
       </c>
     </row>
-    <row r="665" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A665" s="1">
         <v>670</v>
       </c>
@@ -20329,7 +20343,7 @@
         <v>-51091152.691353276</v>
       </c>
     </row>
-    <row r="666" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A666" s="1">
         <v>630</v>
       </c>
@@ -20355,7 +20369,7 @@
         <v>-49859021.380617201</v>
       </c>
     </row>
-    <row r="667" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A667" s="1">
         <v>593</v>
       </c>
@@ -20381,7 +20395,7 @@
         <v>-48584655.339140743</v>
       </c>
     </row>
-    <row r="668" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A668" s="1">
         <v>631</v>
       </c>
@@ -20407,7 +20421,7 @@
         <v>-49871901.730915047</v>
       </c>
     </row>
-    <row r="669" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A669" s="1">
         <v>632</v>
       </c>
@@ -20433,7 +20447,7 @@
         <v>-49895337.713058218</v>
       </c>
     </row>
-    <row r="670" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A670" s="1">
         <v>629</v>
       </c>
@@ -20459,7 +20473,7 @@
         <v>-49835722.855348483</v>
       </c>
     </row>
-    <row r="671" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A671" s="1">
         <v>633</v>
       </c>
@@ -20485,7 +20499,7 @@
         <v>-49905292.377321139</v>
       </c>
     </row>
-    <row r="672" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A672" s="1">
         <v>494</v>
       </c>
@@ -20511,7 +20525,7 @@
         <v>-44964619.981007107</v>
       </c>
     </row>
-    <row r="673" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A673" s="1">
         <v>594</v>
       </c>
@@ -20537,7 +20551,7 @@
         <v>-48588826.171409681</v>
       </c>
     </row>
-    <row r="674" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A674" s="1">
         <v>651</v>
       </c>
@@ -20563,7 +20577,7 @@
         <v>-50501553.294296987</v>
       </c>
     </row>
-    <row r="675" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A675" s="1">
         <v>706</v>
       </c>
@@ -20589,7 +20603,7 @@
         <v>-52199651.709734783</v>
       </c>
     </row>
-    <row r="676" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A676" s="1">
         <v>669</v>
       </c>
@@ -20615,7 +20629,7 @@
         <v>-51070562.215542689</v>
       </c>
     </row>
-    <row r="677" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A677" s="1">
         <v>556</v>
       </c>
@@ -20641,7 +20655,7 @@
         <v>-47200683.375031307</v>
       </c>
     </row>
-    <row r="678" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A678" s="1">
         <v>597</v>
       </c>
@@ -20667,7 +20681,7 @@
         <v>-48606428.566757537</v>
       </c>
     </row>
-    <row r="679" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A679" s="1">
         <v>762</v>
       </c>
@@ -20693,7 +20707,7 @@
         <v>-53728420.429628812</v>
       </c>
     </row>
-    <row r="680" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A680" s="1">
         <v>538</v>
       </c>
@@ -20719,7 +20733,7 @@
         <v>-46504597.271546327</v>
       </c>
     </row>
-    <row r="681" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A681" s="1">
         <v>617</v>
       </c>
@@ -20745,7 +20759,7 @@
         <v>-49292322.144467957</v>
       </c>
     </row>
-    <row r="682" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A682" s="1">
         <v>730</v>
       </c>
@@ -20771,7 +20785,7 @@
         <v>-52803415.761702143</v>
       </c>
     </row>
-    <row r="683" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A683" s="1">
         <v>635</v>
       </c>
@@ -20797,7 +20811,7 @@
         <v>-49908359.929529682</v>
       </c>
     </row>
-    <row r="684" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A684" s="1">
         <v>789</v>
       </c>
@@ -20823,7 +20837,7 @@
         <v>-54564338.110533521</v>
       </c>
     </row>
-    <row r="685" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A685" s="1">
         <v>721</v>
       </c>
@@ -20849,7 +20863,7 @@
         <v>-52429428.121986337</v>
       </c>
     </row>
-    <row r="686" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A686" s="1">
         <v>731</v>
       </c>
@@ -20875,7 +20889,7 @@
         <v>-52828680.975685403</v>
       </c>
     </row>
-    <row r="687" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A687" s="1">
         <v>598</v>
       </c>
@@ -20901,7 +20915,7 @@
         <v>-48612702.316594534</v>
       </c>
     </row>
-    <row r="688" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A688" s="1">
         <v>705</v>
       </c>
@@ -20927,7 +20941,7 @@
         <v>-52173524.084299371</v>
       </c>
     </row>
-    <row r="689" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A689" s="1">
         <v>768</v>
       </c>
@@ -20953,7 +20967,7 @@
         <v>-53952650.231652662</v>
       </c>
     </row>
-    <row r="690" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A690" s="1">
         <v>559</v>
       </c>
@@ -20979,7 +20993,7 @@
         <v>-47238585.509341143</v>
       </c>
     </row>
-    <row r="691" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A691" s="1">
         <v>557</v>
       </c>
@@ -21005,7 +21019,7 @@
         <v>-47202070.698729262</v>
       </c>
     </row>
-    <row r="692" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A692" s="1">
         <v>610</v>
       </c>
@@ -21031,7 +21045,7 @@
         <v>-49246055.6918597</v>
       </c>
     </row>
-    <row r="693" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A693" s="1">
         <v>732</v>
       </c>
@@ -21057,7 +21071,7 @@
         <v>-52844524.278281882</v>
       </c>
     </row>
-    <row r="694" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A694" s="1">
         <v>763</v>
       </c>
@@ -21083,7 +21097,7 @@
         <v>-53794675.030590244</v>
       </c>
     </row>
-    <row r="695" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A695" s="1">
         <v>558</v>
       </c>
@@ -21109,7 +21123,7 @@
         <v>-47209044.146627061</v>
       </c>
     </row>
-    <row r="696" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A696" s="1">
         <v>749</v>
       </c>
@@ -21135,7 +21149,7 @@
         <v>-53412580.945661142</v>
       </c>
     </row>
-    <row r="697" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A697" s="1">
         <v>729</v>
       </c>
@@ -21161,7 +21175,7 @@
         <v>-52789886.284215301</v>
       </c>
     </row>
-    <row r="698" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A698" s="1">
         <v>743</v>
       </c>
@@ -21187,7 +21201,7 @@
         <v>-53216925.645919077</v>
       </c>
     </row>
-    <row r="699" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A699" s="1">
         <v>596</v>
       </c>
@@ -21213,7 +21227,7 @@
         <v>-48592103.249111727</v>
       </c>
     </row>
-    <row r="700" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A700" s="1">
         <v>634</v>
       </c>
@@ -21239,7 +21253,7 @@
         <v>-49907519.331785247</v>
       </c>
     </row>
-    <row r="701" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A701" s="1">
         <v>783</v>
       </c>
@@ -21265,7 +21279,7 @@
         <v>-54362789.260740839</v>
       </c>
     </row>
-    <row r="702" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A702" s="1">
         <v>744</v>
       </c>
@@ -21291,7 +21305,7 @@
         <v>-53268874.398130193</v>
       </c>
     </row>
-    <row r="703" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A703" s="1">
         <v>499</v>
       </c>
@@ -21317,7 +21331,7 @@
         <v>-44975346.563841097</v>
       </c>
     </row>
-    <row r="704" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A704" s="1">
         <v>653</v>
       </c>
@@ -21343,7 +21357,7 @@
         <v>-50526371.903283499</v>
       </c>
     </row>
-    <row r="705" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A705" s="1">
         <v>555</v>
       </c>
@@ -21369,7 +21383,7 @@
         <v>-47197631.6348961</v>
       </c>
     </row>
-    <row r="706" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A706" s="1">
         <v>709</v>
       </c>
@@ -21395,7 +21409,7 @@
         <v>-52250834.318489313</v>
       </c>
     </row>
-    <row r="707" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A707" s="1">
         <v>747</v>
       </c>
@@ -21421,7 +21435,7 @@
         <v>-53373777.964811511</v>
       </c>
     </row>
-    <row r="708" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A708" s="1">
         <v>750</v>
       </c>
@@ -21447,7 +21461,7 @@
         <v>-53434078.06251438</v>
       </c>
     </row>
-    <row r="709" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A709" s="1">
         <v>578</v>
       </c>
@@ -21473,7 +21487,7 @@
         <v>-47918655.241836473</v>
       </c>
     </row>
-    <row r="710" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A710" s="1">
         <v>788</v>
       </c>
@@ -21499,7 +21513,7 @@
         <v>-54554246.790116407</v>
       </c>
     </row>
-    <row r="711" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A711" s="1">
         <v>615</v>
       </c>
@@ -21525,7 +21539,7 @@
         <v>-49290819.004005708</v>
       </c>
     </row>
-    <row r="712" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A712" s="1">
         <v>539</v>
       </c>
@@ -21551,7 +21565,7 @@
         <v>-46505921.599799372</v>
       </c>
     </row>
-    <row r="713" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A713" s="1">
         <v>693</v>
       </c>
@@ -21577,7 +21591,7 @@
         <v>-51708441.891697869</v>
       </c>
     </row>
-    <row r="714" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A714" s="1">
         <v>790</v>
       </c>
@@ -21603,7 +21617,7 @@
         <v>-54591279.451677598</v>
       </c>
     </row>
-    <row r="715" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A715" s="1">
         <v>595</v>
       </c>
@@ -21629,7 +21643,7 @@
         <v>-48589465.642142579</v>
       </c>
     </row>
-    <row r="716" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A716" s="1">
         <v>765</v>
       </c>
@@ -21655,7 +21669,7 @@
         <v>-53883238.024656639</v>
       </c>
     </row>
-    <row r="717" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A717" s="1">
         <v>785</v>
       </c>
@@ -21681,7 +21695,7 @@
         <v>-54462348.637075722</v>
       </c>
     </row>
-    <row r="718" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A718" s="1">
         <v>786</v>
       </c>
@@ -21707,7 +21721,7 @@
         <v>-54513037.251941673</v>
       </c>
     </row>
-    <row r="719" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A719" s="1">
         <v>579</v>
       </c>
@@ -21733,7 +21747,7 @@
         <v>-47919546.742499597</v>
       </c>
     </row>
-    <row r="720" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A720" s="1">
         <v>690</v>
       </c>
@@ -21759,7 +21773,7 @@
         <v>-51693448.046527281</v>
       </c>
     </row>
-    <row r="721" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A721" s="1">
         <v>639</v>
       </c>
@@ -21785,7 +21799,7 @@
         <v>-49916331.09153001</v>
       </c>
     </row>
-    <row r="722" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A722" s="1">
         <v>691</v>
       </c>
@@ -21811,7 +21825,7 @@
         <v>-51701247.186946712</v>
       </c>
     </row>
-    <row r="723" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A723" s="1">
         <v>650</v>
       </c>
@@ -21837,7 +21851,7 @@
         <v>-50495230.934064813</v>
       </c>
     </row>
-    <row r="724" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A724" s="1">
         <v>771</v>
       </c>
@@ -21863,7 +21877,7 @@
         <v>-53987258.496095918</v>
       </c>
     </row>
-    <row r="725" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A725" s="1">
         <v>752</v>
       </c>
@@ -21889,7 +21903,7 @@
         <v>-53457100.754085727</v>
       </c>
     </row>
-    <row r="726" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A726" s="1">
         <v>784</v>
       </c>
@@ -21915,7 +21929,7 @@
         <v>-54424457.172818579</v>
       </c>
     </row>
-    <row r="727" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A727" s="1">
         <v>695</v>
       </c>
@@ -21941,7 +21955,7 @@
         <v>-51719914.644881457</v>
       </c>
     </row>
-    <row r="728" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A728" s="1">
         <v>694</v>
       </c>
@@ -21967,7 +21981,7 @@
         <v>-51711898.481530383</v>
       </c>
     </row>
-    <row r="729" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A729" s="1">
         <v>613</v>
       </c>
@@ -21993,7 +22007,7 @@
         <v>-49272669.457924351</v>
       </c>
     </row>
-    <row r="730" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A730" s="1">
         <v>766</v>
       </c>
@@ -22019,7 +22033,7 @@
         <v>-53916932.888601139</v>
       </c>
     </row>
-    <row r="731" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A731" s="1">
         <v>697</v>
       </c>
@@ -22045,7 +22059,7 @@
         <v>-51734287.279094413</v>
       </c>
     </row>
-    <row r="732" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A732" s="1">
         <v>764</v>
       </c>
@@ -22071,7 +22085,7 @@
         <v>-53842331.77610562</v>
       </c>
     </row>
-    <row r="733" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A733" s="1">
         <v>710</v>
       </c>
@@ -22097,7 +22111,7 @@
         <v>-52263524.420252621</v>
       </c>
     </row>
-    <row r="734" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A734" s="1">
         <v>673</v>
       </c>
@@ -22123,7 +22137,7 @@
         <v>-51133473.934220947</v>
       </c>
     </row>
-    <row r="735" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A735" s="1">
         <v>658</v>
       </c>
@@ -22149,7 +22163,7 @@
         <v>-50532116.849876158</v>
       </c>
     </row>
-    <row r="736" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A736" s="1">
         <v>773</v>
       </c>
@@ -22175,7 +22189,7 @@
         <v>-54007158.98250667</v>
       </c>
     </row>
-    <row r="737" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A737" s="1">
         <v>628</v>
       </c>
@@ -22201,7 +22215,7 @@
         <v>-49825471.278887227</v>
       </c>
     </row>
-    <row r="738" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="738" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A738" s="1">
         <v>713</v>
       </c>
@@ -22227,7 +22241,7 @@
         <v>-52291051.862533092</v>
       </c>
     </row>
-    <row r="739" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="739" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A739" s="1">
         <v>655</v>
       </c>
@@ -22253,7 +22267,7 @@
         <v>-50530423.159930073</v>
       </c>
     </row>
-    <row r="740" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="740" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A740" s="1">
         <v>599</v>
       </c>
@@ -22279,7 +22293,7 @@
         <v>-48613464.492992379</v>
       </c>
     </row>
-    <row r="741" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="741" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A741" s="1">
         <v>672</v>
       </c>
@@ -22305,7 +22319,7 @@
         <v>-51128616.17643287</v>
       </c>
     </row>
-    <row r="742" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="742" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A742" s="1">
         <v>654</v>
       </c>
@@ -22331,7 +22345,7 @@
         <v>-50529426.111509912</v>
       </c>
     </row>
-    <row r="743" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="743" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A743" s="1">
         <v>676</v>
       </c>
@@ -22357,7 +22371,7 @@
         <v>-51160356.899862103</v>
       </c>
     </row>
-    <row r="744" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="744" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A744" s="1">
         <v>769</v>
       </c>
@@ -22383,7 +22397,7 @@
         <v>-53956735.117563173</v>
       </c>
     </row>
-    <row r="745" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="745" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A745" s="1">
         <v>770</v>
       </c>
@@ -22409,7 +22423,7 @@
         <v>-53967313.099219002</v>
       </c>
     </row>
-    <row r="746" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="746" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A746" s="1">
         <v>616</v>
       </c>
@@ -22435,7 +22449,7 @@
         <v>-49292322.144467957</v>
       </c>
     </row>
-    <row r="747" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="747" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A747" s="1">
         <v>657</v>
       </c>
@@ -22461,7 +22475,7 @@
         <v>-50531947.758413069</v>
       </c>
     </row>
-    <row r="748" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="748" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A748" s="1">
         <v>787</v>
       </c>
@@ -22487,7 +22501,7 @@
         <v>-54536399.076051459</v>
       </c>
     </row>
-    <row r="749" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="749" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A749" s="1">
         <v>735</v>
       </c>
@@ -22513,7 +22527,7 @@
         <v>-52872126.371903017</v>
       </c>
     </row>
-    <row r="750" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="750" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A750" s="1">
         <v>656</v>
       </c>
@@ -22539,7 +22553,7 @@
         <v>-50531490.378868178</v>
       </c>
     </row>
-    <row r="751" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="751" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A751" s="1">
         <v>751</v>
       </c>
@@ -22565,7 +22579,7 @@
         <v>-53446538.428082123</v>
       </c>
     </row>
-    <row r="752" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="752" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A752" s="1">
         <v>791</v>
       </c>
@@ -22591,7 +22605,7 @@
         <v>-54603224.93447642</v>
       </c>
     </row>
-    <row r="753" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="753" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A753" s="1">
         <v>678</v>
       </c>
@@ -22617,7 +22631,7 @@
         <v>-51164893.596476443</v>
       </c>
     </row>
-    <row r="754" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="754" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A754" s="1">
         <v>637</v>
       </c>
@@ -22643,7 +22657,7 @@
         <v>-49911772.794711761</v>
       </c>
     </row>
-    <row r="755" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="755" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A755" s="1">
         <v>638</v>
       </c>
@@ -22669,7 +22683,7 @@
         <v>-49913262.467388391</v>
       </c>
     </row>
-    <row r="756" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="756" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A756" s="1">
         <v>717</v>
       </c>
@@ -22695,7 +22709,7 @@
         <v>-52307461.392238677</v>
       </c>
     </row>
-    <row r="757" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="757" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A757" s="1">
         <v>733</v>
       </c>
@@ -22721,7 +22735,7 @@
         <v>-52866535.194206573</v>
       </c>
     </row>
-    <row r="758" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="758" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A758" s="1">
         <v>677</v>
       </c>
@@ -22747,7 +22761,7 @@
         <v>-51164893.596476443</v>
       </c>
     </row>
-    <row r="759" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="759" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A759" s="1">
         <v>679</v>
       </c>
@@ -22773,7 +22787,7 @@
         <v>-51164893.596476443</v>
       </c>
     </row>
-    <row r="760" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="760" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A760" s="1">
         <v>772</v>
       </c>
@@ -22799,7 +22813,7 @@
         <v>-54000341.467911303</v>
       </c>
     </row>
-    <row r="761" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="761" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A761" s="1">
         <v>712</v>
       </c>
@@ -22825,7 +22839,7 @@
         <v>-52283379.204386987</v>
       </c>
     </row>
-    <row r="762" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="762" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A762" s="1">
         <v>577</v>
       </c>
@@ -22851,7 +22865,7 @@
         <v>-47914996.257657662</v>
       </c>
     </row>
-    <row r="763" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="763" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A763" s="1">
         <v>793</v>
       </c>
@@ -22877,7 +22891,7 @@
         <v>-54617874.503916293</v>
       </c>
     </row>
-    <row r="764" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="764" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A764" s="1">
         <v>714</v>
       </c>
@@ -22903,7 +22917,7 @@
         <v>-52301968.098641008</v>
       </c>
     </row>
-    <row r="765" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="765" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A765" s="1">
         <v>692</v>
       </c>
@@ -22929,7 +22943,7 @@
         <v>-51706202.181420632</v>
       </c>
     </row>
-    <row r="766" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="766" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A766" s="1">
         <v>619</v>
       </c>
@@ -22955,7 +22969,7 @@
         <v>-49292322.144467957</v>
       </c>
     </row>
-    <row r="767" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="767" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A767" s="1">
         <v>696</v>
       </c>
@@ -22981,7 +22995,7 @@
         <v>-51734099.319372669</v>
       </c>
     </row>
-    <row r="768" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="768" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A768" s="1">
         <v>716</v>
       </c>
@@ -23007,7 +23021,7 @@
         <v>-52306423.085499004</v>
       </c>
     </row>
-    <row r="769" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="769" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A769" s="1">
         <v>734</v>
       </c>
@@ -23033,7 +23047,7 @@
         <v>-52868387.647404961</v>
       </c>
     </row>
-    <row r="770" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="770" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A770" s="1">
         <v>618</v>
       </c>
@@ -23059,7 +23073,7 @@
         <v>-49292322.144467957</v>
       </c>
     </row>
-    <row r="771" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="771" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A771" s="1">
         <v>698</v>
       </c>
@@ -23085,7 +23099,7 @@
         <v>-51734287.279094413</v>
       </c>
     </row>
-    <row r="772" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="772" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A772" s="1">
         <v>753</v>
       </c>
@@ -23111,7 +23125,7 @@
         <v>-53464156.273729987</v>
       </c>
     </row>
-    <row r="773" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="773" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A773" s="1">
         <v>715</v>
       </c>
@@ -23137,7 +23151,7 @@
         <v>-52303997.173111431</v>
       </c>
     </row>
-    <row r="774" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="774" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A774" s="1">
         <v>792</v>
       </c>
@@ -23163,7 +23177,7 @@
         <v>-54610707.40803919</v>
       </c>
     </row>
-    <row r="775" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="775" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A775" s="1">
         <v>675</v>
       </c>
@@ -23189,7 +23203,7 @@
         <v>-51160356.899862103</v>
       </c>
     </row>
-    <row r="776" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="776" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A776" s="1">
         <v>754</v>
       </c>
@@ -23215,7 +23229,7 @@
         <v>-53465257.11429774</v>
       </c>
     </row>
-    <row r="777" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="777" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A777" s="1">
         <v>795</v>
       </c>
@@ -23241,7 +23255,7 @@
         <v>-54638556.762958691</v>
       </c>
     </row>
-    <row r="778" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="778" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A778" s="1">
         <v>775</v>
       </c>
@@ -23267,7 +23281,7 @@
         <v>-54022402.614952862</v>
       </c>
     </row>
-    <row r="779" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="779" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A779" s="1">
         <v>794</v>
       </c>
@@ -23293,7 +23307,7 @@
         <v>-54630919.71341534</v>
       </c>
     </row>
-    <row r="780" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="780" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A780" s="1">
         <v>718</v>
       </c>
@@ -23319,7 +23333,7 @@
         <v>-52307762.345081098</v>
       </c>
     </row>
-    <row r="781" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="781" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A781" s="1">
         <v>736</v>
       </c>
@@ -23345,7 +23359,7 @@
         <v>-52874954.102122292</v>
       </c>
     </row>
-    <row r="782" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="782" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A782" s="1">
         <v>738</v>
       </c>
@@ -23371,7 +23385,7 @@
         <v>-52881104.828394502</v>
       </c>
     </row>
-    <row r="783" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="783" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A783" s="1">
         <v>774</v>
       </c>
@@ -23397,7 +23411,7 @@
         <v>-54016372.298959568</v>
       </c>
     </row>
-    <row r="784" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="784" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A784" s="1">
         <v>757</v>
       </c>
@@ -23423,7 +23437,7 @@
         <v>-53471192.965109631</v>
       </c>
     </row>
-    <row r="785" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="785" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A785" s="1">
         <v>737</v>
       </c>
@@ -23449,7 +23463,7 @@
         <v>-52876697.968459979</v>
       </c>
     </row>
-    <row r="786" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="786" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A786" s="1">
         <v>777</v>
       </c>
@@ -23475,7 +23489,7 @@
         <v>-54028135.286040343</v>
       </c>
     </row>
-    <row r="787" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="787" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A787" s="1">
         <v>755</v>
       </c>
@@ -23501,7 +23515,7 @@
         <v>-53466441.631191239</v>
       </c>
     </row>
-    <row r="788" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="788" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A788" s="1">
         <v>659</v>
       </c>
@@ -23527,7 +23541,7 @@
         <v>-50532285.941339269</v>
       </c>
     </row>
-    <row r="789" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="789" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A789" s="1">
         <v>699</v>
       </c>
@@ -23553,7 +23567,7 @@
         <v>-51734287.279094413</v>
       </c>
     </row>
-    <row r="790" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="790" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A790" s="1">
         <v>776</v>
       </c>
@@ -23579,7 +23593,7 @@
         <v>-54026688.530285299</v>
       </c>
     </row>
-    <row r="791" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="791" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A791" s="1">
         <v>779</v>
       </c>
@@ -23605,7 +23619,7 @@
         <v>-54031511.049468771</v>
       </c>
     </row>
-    <row r="792" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="792" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A792" s="1">
         <v>759</v>
       </c>
@@ -23631,7 +23645,7 @@
         <v>-53473169.902276061</v>
       </c>
     </row>
-    <row r="793" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="793" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A793" s="1">
         <v>758</v>
       </c>
@@ -23657,7 +23671,7 @@
         <v>-53473169.902276061</v>
       </c>
     </row>
-    <row r="794" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="794" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A794" s="1">
         <v>797</v>
       </c>
@@ -23683,7 +23697,7 @@
         <v>-54644852.678034782</v>
       </c>
     </row>
-    <row r="795" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="795" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A795" s="1">
         <v>756</v>
       </c>
@@ -23709,7 +23723,7 @@
         <v>-53467231.30912023</v>
       </c>
     </row>
-    <row r="796" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="796" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A796" s="1">
         <v>778</v>
       </c>
@@ -23735,7 +23749,7 @@
         <v>-54031511.049468771</v>
       </c>
     </row>
-    <row r="797" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="797" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A797" s="1">
         <v>796</v>
       </c>
@@ -23761,7 +23775,7 @@
         <v>-54644852.678034782</v>
       </c>
     </row>
-    <row r="798" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="798" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A798" s="1">
         <v>798</v>
       </c>
@@ -23787,7 +23801,7 @@
         <v>-54647104.121307217</v>
       </c>
     </row>
-    <row r="799" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="799" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A799" s="1">
         <v>719</v>
       </c>
@@ -23813,7 +23827,7 @@
         <v>-52308464.568380058</v>
       </c>
     </row>
-    <row r="800" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="800" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A800" s="1">
         <v>739</v>
       </c>
@@ -23839,7 +23853,7 @@
         <v>-52881443.654166803</v>
       </c>
     </row>
-    <row r="801" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="801" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A801" s="1">
         <v>799</v>
       </c>
@@ -23877,19 +23891,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D5E6F7D-60C7-4A0E-B95B-5EAB6893E173}">
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="31.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="15.5546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B1" s="6" t="s">
         <v>0</v>
       </c>
@@ -23909,7 +23923,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>809</v>
       </c>
@@ -23932,7 +23946,7 @@
         <v>12.2</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>810</v>
       </c>
@@ -23955,7 +23969,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>811</v>
       </c>
@@ -23978,7 +23992,7 @@
         <v>8.8000000000000007</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B7" s="6" t="s">
         <v>0</v>
       </c>
@@ -23998,7 +24012,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>813</v>
       </c>
@@ -24021,7 +24035,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>815</v>
       </c>
